--- a/led_locations.xlsx
+++ b/led_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapti\Documents\traffic-pcb-sb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B69BEC-C02A-4BB5-9C2E-803AC418B3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BECE90-2CEB-4B61-88F2-4D66ACD9B423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="279">
   <si>
     <t>LED Number</t>
   </si>
@@ -589,13 +589,286 @@
   </si>
   <si>
     <t>I-5</t>
+  </si>
+  <si>
+    <t>CA-1</t>
+  </si>
+  <si>
+    <t>C6tGwxhV4yKQBAAo/y0ijzj/4vRMIgA=</t>
+  </si>
+  <si>
+    <t>C6tG0hhRWCKAKQAlCJsiEA==</t>
+  </si>
+  <si>
+    <t>C6tGyBhQDSKQH//s+YgiAA==</t>
+  </si>
+  <si>
+    <t>C6tGzhhQDSKADQAIAsgiEA==</t>
+  </si>
+  <si>
+    <t>C6tGyRhLsiKODAIP/hgiGg==</t>
+  </si>
+  <si>
+    <t>C6tIVBhKnCKaEPznAhciDg==</t>
+  </si>
+  <si>
+    <t>C6tHvxhKzhpqGAU7/WwaGg==</t>
+  </si>
+  <si>
+    <t>C6tKhhhJeBp7FvtLAnEaCg==</t>
+  </si>
+  <si>
+    <t>C6tKLxhJmxprHAWT/FMaHA==</t>
+  </si>
+  <si>
+    <t>C6tL4xhIuxp7Dv0TAZcaCw==</t>
+  </si>
+  <si>
+    <t>C6tOzRhFtRpsHAPu+xkaHQ==</t>
+  </si>
+  <si>
+    <t>C6tRBxhC/hp9Ivs5BfoaDQ==</t>
+  </si>
+  <si>
+    <t>C6tRkxhCPxptyiYh69AbGg==</t>
+  </si>
+  <si>
+    <t>C6tjWBg41ht609izFcsaDQ==</t>
+  </si>
+  <si>
+    <t>C6tjWBg41htqWBO/+VcbFg==</t>
+  </si>
+  <si>
+    <t>C6tsixg1vBt2WOxBBqkbCg==</t>
+  </si>
+  <si>
+    <t>C6tsixg1vBtmQQ/a/pAbGQ==</t>
+  </si>
+  <si>
+    <t>C6tz7xg1EBt5QfAmAXAbBg==</t>
+  </si>
+  <si>
+    <t>C6tz7xg1EBtoiR6g9pwaFQ==</t>
+  </si>
+  <si>
+    <t>C6uCGBgwqBp1iOGdCXUbCA==</t>
+  </si>
+  <si>
+    <t>C6uDiRgxhxpmCQJq/8MaGQ==</t>
+  </si>
+  <si>
+    <t>C6uEpBgxcBp5Cf2fADkaBg==</t>
+  </si>
+  <si>
+    <t>C6uEqRgxaxppUBK2A1caFQ==</t>
+  </si>
+  <si>
+    <t>C6uNYBgy/Rp1UO1D/K0aCQ==</t>
+  </si>
+  <si>
+    <t>C6uNYhgy+RplUhQNAdMaFw==</t>
+  </si>
+  <si>
+    <t>C6uWsxgz2Bp3Uev9/ioaBQ==</t>
+  </si>
+  <si>
+    <t>C6uWuhgz0xpnbRpEAN8bGA==</t>
+  </si>
+  <si>
+    <t>C6ui+Bg0Oxt4beWu/ywaBw==</t>
+  </si>
+  <si>
+    <t>C6ui+Bg0OxtnpScp/48aGg==</t>
+  </si>
+  <si>
+    <t>C6utShg00xp2XOnb/robBw==</t>
+  </si>
+  <si>
+    <t>C6uxnhg0iBp4J/a1AJ8aBw==</t>
+  </si>
+  <si>
+    <t>C6u1OBg0BhprHAY9/RsaGg==</t>
+  </si>
+  <si>
+    <t>C6u4MRgyqxp6HfmnAvMaCw==</t>
+  </si>
+  <si>
+    <t>C6u4IBgyrRpqGQUj/NcbGw==</t>
+  </si>
+  <si>
+    <t>C6u6hRgxNBt7GfsBAyUaCw==</t>
+  </si>
+  <si>
+    <t>C6u8PhgvvgEMXBR4BqwBFg==</t>
+  </si>
+  <si>
+    <t>C6u9ZRgvzQEXDP1IACgBDA==</t>
+  </si>
+  <si>
+    <t>C6u+YhgwIBJLBQD+/y8THA==</t>
+  </si>
+  <si>
+    <t>C6u+1BgvwhNcBf8EAOASDA==</t>
+  </si>
+  <si>
+    <t>C6vC2BgtJhNKDwM//nETGg==</t>
+  </si>
+  <si>
+    <t>C6vEUxgsbxNaDvzTAYgTCg==</t>
+  </si>
+  <si>
+    <t>C6vFOxgrxxNMDgIG/akSHA==</t>
+  </si>
+  <si>
+    <t>C6vGLhgquhJdDf32AkETDA==</t>
+  </si>
+  <si>
+    <t>C6vIDRgo/httTw4L9s0aHQ==</t>
+  </si>
+  <si>
+    <t>C6vKcRgmNRp9Hfu8BMEaDQ==</t>
+  </si>
+  <si>
+    <t>C6vOfRgk6Bp7KPdPAssaDQ==</t>
+  </si>
+  <si>
+    <t>C6vOnBgkVRpwEAAD/IwaAA==</t>
+  </si>
+  <si>
+    <t>C6vOphgjZhpgCP/+AbEaEA==</t>
+  </si>
+  <si>
+    <t>C6vOoBgg7hpwFQAK+4oaHw==</t>
+  </si>
+  <si>
+    <t>C6vOrRge2hp/Gf/wBUIaEA==</t>
+  </si>
+  <si>
+    <t>C6vOpxgeRxpwG//t+lUaAA==</t>
+  </si>
+  <si>
+    <t>C6vOpxgbqRp/CQAaAgwaYBH//AOeGhA=</t>
+  </si>
+  <si>
+    <t>C6vOpRgaVRpwDQAD/SQaAA==</t>
+  </si>
+  <si>
+    <t>C6vOrhgZBRpgC///AngaEA==</t>
+  </si>
+  <si>
+    <t>C6vOvRgWWhptDwD4/NgaHg==</t>
+  </si>
+  <si>
+    <t>C6vPNxgU6Bp+D/8FAyMaDQ==</t>
+  </si>
+  <si>
+    <t>C6vPyBgS1RtuCACH/k0bHg==</t>
+  </si>
+  <si>
+    <t>C6vQBxgSCht+Cv9aAhIbDg==</t>
+  </si>
+  <si>
+    <t>C6vQmBgQDhtvEf/1/FgbAQ==</t>
+  </si>
+  <si>
+    <t>C6vQkxgOWhthEgAKA7IbDw==</t>
+  </si>
+  <si>
+    <t>C6vQ8hgMehpqCwKZ/vsaGA==</t>
+  </si>
+  <si>
+    <t>C6vSJhgMBRp4C/1kAQoaCg==</t>
+  </si>
+  <si>
+    <t>C6vVnhgKfRpqCwKm/vgaGg==</t>
+  </si>
+  <si>
+    <t>C6vWvRgKEhp6C/1wAQEaCQ==</t>
+  </si>
+  <si>
+    <t>C6vW2hgKAhpqJQb9+vMbGw==</t>
+  </si>
+  <si>
+    <t>C6vaFhgHqxt7JvjQBScaCg==</t>
+  </si>
+  <si>
+    <t>C6vcgRgHMxtoEwTf//gbGA==</t>
+  </si>
+  <si>
+    <t>C6vevhgHMBt4E/sxAAcbCA==</t>
+  </si>
+  <si>
+    <t>C6vgmhgHRRtlCQI/AGkbGA==</t>
+  </si>
+  <si>
+    <t>C6vhphgHdht4Cf3B/5cbBQ==</t>
+  </si>
+  <si>
+    <t>C6vjmxgHXRtoCQJUAAkbFw==</t>
+  </si>
+  <si>
+    <t>C6vksRgHYRt3Cf2Z//kbCA==</t>
+  </si>
+  <si>
+    <t>C6vm0hgHfxtnQA/C/3gaGA==</t>
+  </si>
+  <si>
+    <t>C6vthxgHTBp5O/GbAG0bBw==</t>
+  </si>
+  <si>
+    <t>C6vxNxgHSxpoDAMu/+wbGA==</t>
+  </si>
+  <si>
+    <t>C6vyshgHQht4E/tNAAYaCA==</t>
+  </si>
+  <si>
+    <t>C6v2wBgHQRtoBgF+AAEbGA==</t>
+  </si>
+  <si>
+    <t>C6v3chgHQht4Bv5SAAEbCA==</t>
+  </si>
+  <si>
+    <t>C6v7HhgHQRtoEAPg/80aGQ==</t>
+  </si>
+  <si>
+    <t>C6v8qBgHSRp1Dvxy//AbCA==</t>
+  </si>
+  <si>
+    <t>C6v87BgHKRpqEAML/dMaGw==</t>
+  </si>
+  <si>
+    <t>C6v+WBgGLhp7FPxhAmAaBA==</t>
+  </si>
+  <si>
+    <t>C6wAvxgEWRprIgPH+ckaHA==</t>
+  </si>
+  <si>
+    <t>C6wChRgBfBp8I/v2BmMaCw==</t>
+  </si>
+  <si>
+    <t>C6wCghgBdBpsKwYo+UcaGg==</t>
+  </si>
+  <si>
+    <t>C6wFXhf+Whp6K/nkBrkaDA==</t>
+  </si>
+  <si>
+    <t>C6wFYBf+UhpqTQyh9JoaHA==</t>
+  </si>
+  <si>
+    <t>C6wLXRf48Bp8T/MhC58aCg==</t>
+  </si>
+  <si>
+    <t>C6wLQxf5AhpsTQwY86caHA==</t>
+  </si>
+  <si>
+    <t>C6wQ5RfzSRp8TPQjDCEaDA==</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -614,6 +887,13 @@
       <color rgb="FF212121"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF0451A5"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -636,7 +916,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -644,6 +924,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -925,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H341"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
+      <selection activeCell="F347" sqref="F347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6022,6 +6305,2882 @@
         <v>13</v>
       </c>
     </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
+        <v>55</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D212" s="2">
+        <v>34.209381999999998</v>
+      </c>
+      <c r="E212" s="2">
+        <v>-119.14228300000001</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G212">
+        <v>40</v>
+      </c>
+      <c r="H212" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
+        <v>55</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" s="2">
+        <v>34.201247000000002</v>
+      </c>
+      <c r="E213" s="2">
+        <v>-119.142155</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G213">
+        <v>39</v>
+      </c>
+      <c r="H213" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
+        <v>56</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D214" s="2">
+        <v>34.189284000000001</v>
+      </c>
+      <c r="E214" s="2">
+        <v>-119.14252999999999</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G214">
+        <v>51</v>
+      </c>
+      <c r="H214" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
+        <v>56</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" s="2">
+        <v>34.190691999999999</v>
+      </c>
+      <c r="E215" s="2">
+        <v>-119.14227</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G215">
+        <v>35</v>
+      </c>
+      <c r="H215" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
+        <v>57</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D216" s="2">
+        <v>34.163589999999999</v>
+      </c>
+      <c r="E216" s="2">
+        <v>-119.141178</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G216">
+        <v>64</v>
+      </c>
+      <c r="H216" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
+        <v>57</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" s="2">
+        <v>34.162824000000001</v>
+      </c>
+      <c r="E217" s="2">
+        <v>-119.140047</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G217">
+        <v>63</v>
+      </c>
+      <c r="H217" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
+        <v>58</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D218" s="2">
+        <v>34.157032000000001</v>
+      </c>
+      <c r="E218" s="2">
+        <v>-119.129014</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G218">
+        <v>66</v>
+      </c>
+      <c r="H218" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
+        <v>58</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219" s="2">
+        <v>34.157240999999999</v>
+      </c>
+      <c r="E219" s="2">
+        <v>-119.128871</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G219">
+        <v>65</v>
+      </c>
+      <c r="H219" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
+        <v>59</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D220" s="2">
+        <v>34.150523</v>
+      </c>
+      <c r="E220" s="2">
+        <v>-119.11655500000001</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G220">
+        <v>66</v>
+      </c>
+      <c r="H220" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
+        <v>59</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D221" s="2">
+        <v>34.151235999999997</v>
+      </c>
+      <c r="E221" s="2">
+        <v>-119.117333</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G221">
+        <v>65</v>
+      </c>
+      <c r="H221" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
+        <v>60</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D222" s="2">
+        <v>34.130403999999999</v>
+      </c>
+      <c r="E222" s="2">
+        <v>-119.09634800000001</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G222">
+        <v>67</v>
+      </c>
+      <c r="H222" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
+        <v>60</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D223" s="2">
+        <v>34.130488</v>
+      </c>
+      <c r="E223" s="2">
+        <v>-119.096101</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G223">
+        <v>65</v>
+      </c>
+      <c r="H223" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
+        <v>61</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D224" s="2">
+        <v>34.111924000000002</v>
+      </c>
+      <c r="E224" s="2">
+        <v>-119.081633</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G224">
+        <v>56</v>
+      </c>
+      <c r="H224" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
+        <v>62</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H225" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
+        <v>63</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H226" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
+        <v>82</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H227" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
+        <v>83</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H228" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
+        <v>84</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H229" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
+        <v>61</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D230" s="2">
+        <v>34.112048999999999</v>
+      </c>
+      <c r="E230" s="2">
+        <v>-119.08137000000001</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G230">
+        <v>55</v>
+      </c>
+      <c r="H230" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
+        <v>62</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
+        <v>63</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
+        <v>82</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
+        <v>83</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="3">
+        <v>84</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="3">
+        <v>85</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D236" s="2">
+        <v>34.058914000000001</v>
+      </c>
+      <c r="E236" s="2">
+        <v>-118.97422</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G236">
+        <v>57</v>
+      </c>
+      <c r="H236" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
+        <v>86</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H237" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
+        <v>85</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D238" s="2">
+        <v>34.059024999999998</v>
+      </c>
+      <c r="E238" s="2">
+        <v>-118.97398699999999</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G238">
+        <v>57</v>
+      </c>
+      <c r="H238" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
+        <v>86</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H239" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="3">
+        <v>87</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D240" s="2">
+        <v>34.046470999999997</v>
+      </c>
+      <c r="E240" s="2">
+        <v>-118.93097899999999</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G240">
+        <v>58</v>
+      </c>
+      <c r="H240" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
+        <v>88</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H241" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" s="3">
+        <v>87</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D242" s="2">
+        <v>34.046911000000001</v>
+      </c>
+      <c r="E242" s="2">
+        <v>-118.93041599999999</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G242">
+        <v>60</v>
+      </c>
+      <c r="H242" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
+        <v>88</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H243" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
+        <v>89</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D244" s="2">
+        <v>34.040599999999998</v>
+      </c>
+      <c r="E244" s="2">
+        <v>-118.88858</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G244">
+        <v>55</v>
+      </c>
+      <c r="H244" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="3">
+        <v>90</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H245" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" s="3">
+        <v>109</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H246" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
+        <v>110</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H247" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="3">
+        <v>88</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D248" s="2">
+        <v>34.040809000000003</v>
+      </c>
+      <c r="E248" s="2">
+        <v>-118.88845499999999</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G248">
+        <v>54</v>
+      </c>
+      <c r="H248" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" s="3">
+        <v>89</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="3">
+        <v>109</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" s="3">
+        <v>110</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" s="3">
+        <v>111</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D252" s="2">
+        <v>34.022106999999998</v>
+      </c>
+      <c r="E252" s="2">
+        <v>-118.80552900000001</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G252">
+        <v>40</v>
+      </c>
+      <c r="H252" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" s="3">
+        <v>111</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D253" s="2">
+        <v>34.022395000000003</v>
+      </c>
+      <c r="E253" s="2">
+        <v>-118.805204</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G253">
+        <v>41</v>
+      </c>
+      <c r="H253" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" s="3">
+        <v>112</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D254" s="2">
+        <v>34.025337</v>
+      </c>
+      <c r="E254" s="2">
+        <v>-118.78173700000001</v>
+      </c>
+      <c r="F254" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G254">
+        <v>53</v>
+      </c>
+      <c r="H254" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255" s="3">
+        <v>113</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H255" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" s="3">
+        <v>112</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D256" s="2">
+        <v>34.025598000000002</v>
+      </c>
+      <c r="E256" s="2">
+        <v>-118.78162399999999</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G256">
+        <v>53</v>
+      </c>
+      <c r="H256" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" s="3">
+        <v>113</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H257" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" s="3">
+        <v>114</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D258" s="2">
+        <v>34.033239999999999</v>
+      </c>
+      <c r="E258" s="2">
+        <v>-118.740492</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G258">
+        <v>51</v>
+      </c>
+      <c r="H258" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" s="3">
+        <v>115</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H259" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" s="3">
+        <v>114</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D260" s="2">
+        <v>34.033512999999999</v>
+      </c>
+      <c r="E260" s="2">
+        <v>-118.74057999999999</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G260">
+        <v>54</v>
+      </c>
+      <c r="H260" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" s="3">
+        <v>115</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H261" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" s="3">
+        <v>116</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D262" s="2">
+        <v>34.034137999999999</v>
+      </c>
+      <c r="E262" s="2">
+        <v>-118.686065</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G262">
+        <v>44</v>
+      </c>
+      <c r="H262" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" s="3">
+        <v>117</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H263" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" s="3">
+        <v>154</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H264" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" s="3">
+        <v>116</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D265" s="2">
+        <v>34.034463000000002</v>
+      </c>
+      <c r="E265" s="2">
+        <v>-118.686594</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G265">
+        <v>45</v>
+      </c>
+      <c r="H265" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266" s="3">
+        <v>117</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H266" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" s="3">
+        <v>154</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H267" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" s="3">
+        <v>155</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D268" s="2">
+        <v>34.037227999999999</v>
+      </c>
+      <c r="E268" s="2">
+        <v>-118.614858</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G268">
+        <v>47</v>
+      </c>
+      <c r="H268" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269" s="3">
+        <v>156</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H269" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270" s="3">
+        <v>157</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H270" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" s="3">
+        <v>158</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H271" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" s="3">
+        <v>155</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D272" s="2">
+        <v>34.037435000000002</v>
+      </c>
+      <c r="E272" s="2">
+        <v>-118.614797</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G272">
+        <v>49</v>
+      </c>
+      <c r="H272" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273" s="3">
+        <v>156</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H273" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" s="3">
+        <v>157</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H274" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" s="3">
+        <v>158</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D275" s="2">
+        <v>34.038795</v>
+      </c>
+      <c r="E275" s="2">
+        <v>-118.556696</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G275">
+        <v>45</v>
+      </c>
+      <c r="H275" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" s="3">
+        <v>159</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D276" s="2">
+        <v>34.032215999999998</v>
+      </c>
+      <c r="E276" s="2">
+        <v>-118.52842200000001</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G276">
+        <v>49</v>
+      </c>
+      <c r="H276" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277" s="3">
+        <v>159</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D277" s="2">
+        <v>34.03246</v>
+      </c>
+      <c r="E277" s="2">
+        <v>-118.527952</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G277">
+        <v>46</v>
+      </c>
+      <c r="H277" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278" s="3">
+        <v>160</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D278" s="2">
+        <v>34.020919999999997</v>
+      </c>
+      <c r="E278" s="2">
+        <v>-118.507822</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G278">
+        <v>40</v>
+      </c>
+      <c r="H278" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279" s="3">
+        <v>160</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D279" s="2">
+        <v>34.021134000000004</v>
+      </c>
+      <c r="E279" s="2">
+        <v>-118.507589</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G279">
+        <v>42</v>
+      </c>
+      <c r="H279" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280" s="3">
+        <v>161</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D280" s="2">
+        <v>34.011296000000002</v>
+      </c>
+      <c r="E280" s="2">
+        <v>-118.495474</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G280">
+        <v>61</v>
+      </c>
+      <c r="H280" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281" s="3">
+        <v>161</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D281" s="2">
+        <v>34.011493999999999</v>
+      </c>
+      <c r="E281" s="2">
+        <v>-118.495462</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G281">
+        <v>52</v>
+      </c>
+      <c r="H281" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282" s="3">
+        <v>162</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D282" s="2">
+        <v>34.012906999999998</v>
+      </c>
+      <c r="E282" s="2">
+        <v>-118.483852</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G282">
+        <v>21</v>
+      </c>
+      <c r="H282" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283" s="3">
+        <v>162</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D283" s="2">
+        <v>34.013061999999998</v>
+      </c>
+      <c r="E283" s="2">
+        <v>-118.483706</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G283">
+        <v>23</v>
+      </c>
+      <c r="H283" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A284" s="3">
+        <v>190</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D284" s="2">
+        <v>33.996586999999998</v>
+      </c>
+      <c r="E284" s="2">
+        <v>-118.458189</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G284">
+        <v>24</v>
+      </c>
+      <c r="H284" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285" s="3">
+        <v>190</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D285" s="2">
+        <v>33.996763000000001</v>
+      </c>
+      <c r="E285" s="2">
+        <v>-118.45813</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G285">
+        <v>32</v>
+      </c>
+      <c r="H285" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A286" s="3">
+        <v>191</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D286" s="2">
+        <v>33.985152999999997</v>
+      </c>
+      <c r="E286" s="2">
+        <v>-118.443377</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G286">
+        <v>27</v>
+      </c>
+      <c r="H286" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A287" s="3">
+        <v>191</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D287" s="2">
+        <v>33.985325000000003</v>
+      </c>
+      <c r="E287" s="2">
+        <v>-118.443005</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G287">
+        <v>21</v>
+      </c>
+      <c r="H287" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A288" s="3">
+        <v>192</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D288" s="2">
+        <v>33.974130000000002</v>
+      </c>
+      <c r="E288" s="2">
+        <v>-118.431922</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G288">
+        <v>35</v>
+      </c>
+      <c r="H288" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A289" s="3">
+        <v>193</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H289" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A290" s="3">
+        <v>192</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D290" s="2">
+        <v>33.971533999999998</v>
+      </c>
+      <c r="E290" s="2">
+        <v>-118.42967899999999</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G290">
+        <v>34</v>
+      </c>
+      <c r="H290" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291" s="3">
+        <v>193</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D291" s="2">
+        <v>33.954709999999999</v>
+      </c>
+      <c r="E291" s="2">
+        <v>-118.41352500000001</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G291">
+        <v>43</v>
+      </c>
+      <c r="H291" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A292" s="3">
+        <v>194</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D292" s="2">
+        <v>33.947763999999999</v>
+      </c>
+      <c r="E292" s="2">
+        <v>-118.39644</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G292">
+        <v>34</v>
+      </c>
+      <c r="H292" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A293" s="3">
+        <v>194</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D293" s="2">
+        <v>33.946562999999998</v>
+      </c>
+      <c r="E293" s="2">
+        <v>-118.396006</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G293">
+        <v>25</v>
+      </c>
+      <c r="H293" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A294" s="3">
+        <v>195</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D294" s="2">
+        <v>33.930374</v>
+      </c>
+      <c r="E294" s="2">
+        <v>-118.39636400000001</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G294">
+        <v>28</v>
+      </c>
+      <c r="H294" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A295" s="3">
+        <v>195</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D295" s="2">
+        <v>33.930176000000003</v>
+      </c>
+      <c r="E295" s="2">
+        <v>-118.395957</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G295">
+        <v>24</v>
+      </c>
+      <c r="H295" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A296" s="3">
+        <v>196</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D296" s="2">
+        <v>33.907196999999996</v>
+      </c>
+      <c r="E296" s="2">
+        <v>-118.396209</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G296">
+        <v>36</v>
+      </c>
+      <c r="H296" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A297" s="3">
+        <v>196</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D297" s="2">
+        <v>33.907136999999999</v>
+      </c>
+      <c r="E297" s="2">
+        <v>-118.395667</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G297">
+        <v>38</v>
+      </c>
+      <c r="H297" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A298" s="3">
+        <v>197</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D298" s="2">
+        <v>33.888570000000001</v>
+      </c>
+      <c r="E298" s="2">
+        <v>-118.396164</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G298">
+        <v>32</v>
+      </c>
+      <c r="H298" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A299" s="3">
+        <v>197</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D299" s="2">
+        <v>33.889791000000002</v>
+      </c>
+      <c r="E299" s="2">
+        <v>-118.395844</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G299">
+        <v>38</v>
+      </c>
+      <c r="H299" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A300" s="3">
+        <v>198</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D300" s="2">
+        <v>33.869464000000001</v>
+      </c>
+      <c r="E300" s="2">
+        <v>-118.39449999999999</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G300">
+        <v>32</v>
+      </c>
+      <c r="H300" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A301" s="3">
+        <v>198</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D301" s="2">
+        <v>33.869658000000001</v>
+      </c>
+      <c r="E301" s="2">
+        <v>-118.39429800000001</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G301">
+        <v>30</v>
+      </c>
+      <c r="H301" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A302" s="3">
+        <v>199</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D302" s="2">
+        <v>33.850259000000001</v>
+      </c>
+      <c r="E302" s="2">
+        <v>-118.38898399999999</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G302">
+        <v>35</v>
+      </c>
+      <c r="H302" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A303" s="3">
+        <v>199</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D303" s="2">
+        <v>33.850347999999997</v>
+      </c>
+      <c r="E303" s="2">
+        <v>-118.388818</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G303">
+        <v>27</v>
+      </c>
+      <c r="H303" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A304" s="3">
+        <v>200</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D304" s="2">
+        <v>33.830458999999998</v>
+      </c>
+      <c r="E304" s="2">
+        <v>-118.385181</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G304">
+        <v>35</v>
+      </c>
+      <c r="H304" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A305" s="3">
+        <v>200</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D305" s="2">
+        <v>33.830433999999997</v>
+      </c>
+      <c r="E305" s="2">
+        <v>-118.385024</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G305">
+        <v>32</v>
+      </c>
+      <c r="H305" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A306" s="3">
+        <v>201</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D306" s="2">
+        <v>33.816589</v>
+      </c>
+      <c r="E306" s="2">
+        <v>-118.380358</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G306">
+        <v>35</v>
+      </c>
+      <c r="H306" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A307" s="3">
+        <v>201</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D307" s="2">
+        <v>33.816741</v>
+      </c>
+      <c r="E307" s="2">
+        <v>-118.380191</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G307">
+        <v>29</v>
+      </c>
+      <c r="H307" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A308" s="3">
+        <v>202</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D308" s="2">
+        <v>33.807032999999997</v>
+      </c>
+      <c r="E308" s="2">
+        <v>-118.35646800000001</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G308">
+        <v>27</v>
+      </c>
+      <c r="H308" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A309" s="3">
+        <v>202</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D309" s="2">
+        <v>33.807136999999997</v>
+      </c>
+      <c r="E309" s="2">
+        <v>-118.356161</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G309">
+        <v>34</v>
+      </c>
+      <c r="H309" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A310" s="3">
+        <v>203</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D310" s="2">
+        <v>33.797004000000001</v>
+      </c>
+      <c r="E310" s="2">
+        <v>-118.33984599999999</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G310">
+        <v>37</v>
+      </c>
+      <c r="H310" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A311" s="3">
+        <v>203</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D311" s="2">
+        <v>33.797117999999998</v>
+      </c>
+      <c r="E311" s="2">
+        <v>-118.33963300000001</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G311">
+        <v>39</v>
+      </c>
+      <c r="H311" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A312" s="3">
+        <v>204</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D312" s="2">
+        <v>33.789442999999999</v>
+      </c>
+      <c r="E312" s="2">
+        <v>-118.315331</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G312">
+        <v>25</v>
+      </c>
+      <c r="H312" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A313" s="3">
+        <v>204</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D313" s="2">
+        <v>33.789625999999998</v>
+      </c>
+      <c r="E313" s="2">
+        <v>-118.315793</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G313">
+        <v>29</v>
+      </c>
+      <c r="H313" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A314" s="3">
+        <v>205</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D314" s="2">
+        <v>33.790570000000002</v>
+      </c>
+      <c r="E314" s="2">
+        <v>-118.295503</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G314">
+        <v>24</v>
+      </c>
+      <c r="H314" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A315" s="3">
+        <v>205</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D315" s="2">
+        <v>33.790838999999998</v>
+      </c>
+      <c r="E315" s="2">
+        <v>-118.295303</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G315">
+        <v>30</v>
+      </c>
+      <c r="H315" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A316" s="3">
+        <v>206</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D316" s="2">
+        <v>33.790424999999999</v>
+      </c>
+      <c r="E316" s="2">
+        <v>-118.276143</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G316">
+        <v>26</v>
+      </c>
+      <c r="H316" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A317" s="3">
+        <v>206</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D317" s="2">
+        <v>33.790557</v>
+      </c>
+      <c r="E317" s="2">
+        <v>-118.27600099999999</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G317">
+        <v>29</v>
+      </c>
+      <c r="H317" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A318" s="3">
+        <v>207</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D318" s="2">
+        <v>33.791015999999999</v>
+      </c>
+      <c r="E318" s="2">
+        <v>-118.24516199999999</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G318">
+        <v>42</v>
+      </c>
+      <c r="H318" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A319" s="3">
+        <v>226</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H319" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A320" s="3">
+        <v>207</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D320" s="2">
+        <v>33.791556999999997</v>
+      </c>
+      <c r="E320" s="2">
+        <v>-118.25416800000001</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G320">
+        <v>39</v>
+      </c>
+      <c r="H320" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A321" s="3">
+        <v>226</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H321" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A322" s="3">
+        <v>227</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D322" s="2">
+        <v>33.789959000000003</v>
+      </c>
+      <c r="E322" s="2">
+        <v>-118.203148</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G322">
+        <v>37</v>
+      </c>
+      <c r="H322" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A323" s="3">
+        <v>227</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D323" s="2">
+        <v>33.790123000000001</v>
+      </c>
+      <c r="E323" s="2">
+        <v>-118.202978</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G323">
+        <v>38</v>
+      </c>
+      <c r="H323" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A324" s="3">
+        <v>228</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D324" s="2">
+        <v>33.789796000000003</v>
+      </c>
+      <c r="E324" s="2">
+        <v>-118.174576</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G324">
+        <v>35</v>
+      </c>
+      <c r="H324" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A325" s="3">
+        <v>228</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D325" s="2">
+        <v>33.789963999999998</v>
+      </c>
+      <c r="E325" s="2">
+        <v>-118.174527</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G325">
+        <v>25</v>
+      </c>
+      <c r="H325" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A326" s="3">
+        <v>229</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D326" s="2">
+        <v>33.789782000000002</v>
+      </c>
+      <c r="E326" s="2">
+        <v>-118.150086</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G326">
+        <v>30</v>
+      </c>
+      <c r="H326" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A327" s="3">
+        <v>229</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D327" s="2">
+        <v>33.789943999999998</v>
+      </c>
+      <c r="E327" s="2">
+        <v>-118.149952</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G327">
+        <v>22</v>
+      </c>
+      <c r="H327" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A328" s="3">
+        <v>230</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D328" s="2">
+        <v>33.785561999999999</v>
+      </c>
+      <c r="E328" s="2">
+        <v>-118.136511</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G328">
+        <v>30</v>
+      </c>
+      <c r="H328" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A329" s="3">
+        <v>230</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D329" s="2">
+        <v>33.785629999999998</v>
+      </c>
+      <c r="E329" s="2">
+        <v>-118.136205</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G329">
+        <v>30</v>
+      </c>
+      <c r="H329" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A330" s="3">
+        <v>231</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D330" s="2">
+        <v>33.771047000000003</v>
+      </c>
+      <c r="E330" s="2">
+        <v>-118.118424</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G330">
+        <v>37</v>
+      </c>
+      <c r="H330" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A331" s="3">
+        <v>231</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D331" s="2">
+        <v>33.770698000000003</v>
+      </c>
+      <c r="E331" s="2">
+        <v>-118.117986</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G331">
+        <v>37</v>
+      </c>
+      <c r="H331" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A332" s="3">
+        <v>232</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D332" s="2">
+        <v>33.750039999999998</v>
+      </c>
+      <c r="E332" s="2">
+        <v>-118.106088</v>
+      </c>
+      <c r="F332" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G332">
+        <v>35</v>
+      </c>
+      <c r="H332" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A333" s="3">
+        <v>232</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D333" s="2">
+        <v>33.750056999999998</v>
+      </c>
+      <c r="E333" s="2">
+        <v>-118.105799</v>
+      </c>
+      <c r="F333" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G333">
+        <v>35</v>
+      </c>
+      <c r="H333" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A334" s="3">
+        <v>233</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D334" s="2">
+        <v>33.739376999999998</v>
+      </c>
+      <c r="E334" s="2">
+        <v>-118.092321</v>
+      </c>
+      <c r="F334" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G334">
+        <v>45</v>
+      </c>
+      <c r="H334" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A335" s="3">
+        <v>234</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H335" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A336" s="3">
+        <v>233</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D336" s="2">
+        <v>33.732095999999999</v>
+      </c>
+      <c r="E336" s="2">
+        <v>-118.084671</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G336">
+        <v>43</v>
+      </c>
+      <c r="H336" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A337" s="3">
+        <v>234</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H337" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A338" s="3">
+        <v>329</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D338" s="2">
+        <v>33.707656</v>
+      </c>
+      <c r="E338" s="2">
+        <v>-118.059668</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G338">
+        <v>56</v>
+      </c>
+      <c r="H338" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A339" s="3">
+        <v>330</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H339" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A340" s="3">
+        <v>329</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D340" s="2">
+        <v>33.707935999999997</v>
+      </c>
+      <c r="E340" s="2">
+        <v>-118.059495</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G340">
+        <v>56</v>
+      </c>
+      <c r="H340" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A341" s="3">
+        <v>330</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H341" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/led_locations.xlsx
+++ b/led_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapti\Documents\traffic-pcb-sb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BECE90-2CEB-4B61-88F2-4D66ACD9B423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCDAD20-690C-43EC-9641-6114C1613125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="342">
   <si>
     <t>LED Number</t>
   </si>
@@ -862,6 +862,195 @@
   </si>
   <si>
     <t>C6wQ5RfzSRp8TPQjDCEaDA==</t>
+  </si>
+  <si>
+    <t>CA-118</t>
+  </si>
+  <si>
+    <t>C6tCgRhkLyONJgWU+a4abQMAjf+AGhs=</t>
+  </si>
+  <si>
+    <t>C6tFYRhhBxqbEv0wAwciDA==</t>
+  </si>
+  <si>
+    <t>C6tF1hhg2BpoGATS/NsaWxo=</t>
+  </si>
+  <si>
+    <t>C6tIFBhfaBp7FfvgAvYaCg==</t>
+  </si>
+  <si>
+    <t>C6tJqxheSRprIwbm+0gbHA==</t>
+  </si>
+  <si>
+    <t>C6tM3xhcGRt7JPkbBMAaDA==</t>
+  </si>
+  <si>
+    <t>C6tM4hhcFhpjHQXuAwsbGA==</t>
+  </si>
+  <si>
+    <t>C6tPpRhdgRt4HfoM/PoaAw==</t>
+  </si>
+  <si>
+    <t>C6tPpRhdgRtoGgapAAUbGA==</t>
+  </si>
+  <si>
+    <t>C6tSwBhdhBt4GvlX//sbCA==</t>
+  </si>
+  <si>
+    <t>C6tSwBhdhBtoKQpoAAQbGA==</t>
+  </si>
+  <si>
+    <t>C6tXmRhdhht4KfWY//wbCA==</t>
+  </si>
+  <si>
+    <t>C6taahhdhxtoJAklAAEbGA==</t>
+  </si>
+  <si>
+    <t>C6terRhdhxt4JPbb//8bCA==</t>
+  </si>
+  <si>
+    <t>C6terRhdhxtoGQZ1//8bFw==</t>
+  </si>
+  <si>
+    <t>C6thrxhdhxt3GfmLAAEbCA==</t>
+  </si>
+  <si>
+    <t>C6thrxhdhxtoPQ8rAfobFw==</t>
+  </si>
+  <si>
+    <t>C6towRhecht3PfDV/gYbCA==</t>
+  </si>
+  <si>
+    <t>C6towRhechtmKQnoAgQbFQ==</t>
+  </si>
+  <si>
+    <t>C6ttXxhfYxt1KfYY/fwbBg==</t>
+  </si>
+  <si>
+    <t>C6ttXxhfYxtlMQuTAekaGA==</t>
+  </si>
+  <si>
+    <t>C6tyvhhgSxp4MPR5/g0bBQ==</t>
+  </si>
+  <si>
+    <t>C6tywxhgRxpnHQdSAAAaFw==</t>
+  </si>
+  <si>
+    <t>C6t2LBhgTRp4Hfij//0aCA==</t>
+  </si>
+  <si>
+    <t>C6t3iBhgRhpoFQT9AZEbFQ==</t>
+  </si>
+  <si>
+    <t>C6t5XBhgxhp1EfwI/vsaCA==</t>
+  </si>
+  <si>
+    <t>C6t5mRhhCgo+HwQiA9sKFw==</t>
+  </si>
+  <si>
+    <t>C6t53Rhiqwo0HQBw+p4KHQ==</t>
+  </si>
+  <si>
+    <t>C6t9fhhi5wooWRU/+7cKGA==</t>
+  </si>
+  <si>
+    <t>C6uF2hhhhQo6UexyAv8KBw==</t>
+  </si>
+  <si>
+    <t>C6uIFRhg7Ao4FPs3AUcKCg==</t>
+  </si>
+  <si>
+    <t>C6uHZRhg6AooEwTg/+wKGA==</t>
+  </si>
+  <si>
+    <t>C6uLbxhg7Ao4HPjQAAAKCA==</t>
+  </si>
+  <si>
+    <t>C6uM1Bhg3wooGwbwAAAKGA==</t>
+  </si>
+  <si>
+    <t>C6uOmxhg7Ao4G/kwAAAKCA==</t>
+  </si>
+  <si>
+    <t>C6uQDxhg3wooKAop/8EKGA==</t>
+  </si>
+  <si>
+    <t>C6uYLxhgzgo4KfXJADgKCA==</t>
+  </si>
+  <si>
+    <t>C6uUyxhgwgooKQpZ//sKGA==</t>
+  </si>
+  <si>
+    <t>C6uaYBhgzQo4EvtLAAIKCA==</t>
+  </si>
+  <si>
+    <t>C6uZnhhgvwooFAUG//sKGA==</t>
+  </si>
+  <si>
+    <t>C6udiBhgXwo4HPk6AOsKCA==</t>
+  </si>
+  <si>
+    <t>C6ufDBhfsQotLwmW/b4KFA==</t>
+  </si>
+  <si>
+    <t>C6uh7RheFAo5L/aTBO0KCA==</t>
+  </si>
+  <si>
+    <t>C6ujhBheowojNgxxAosKGg==</t>
+  </si>
+  <si>
+    <t>C6uoBBhgGAo3OvLv+60KCQ==</t>
+  </si>
+  <si>
+    <t>C6upUBhf0woqGQYJ/tIKGA==</t>
+  </si>
+  <si>
+    <t>C6urKRhfUgo4HPlAAagKBw==</t>
+  </si>
+  <si>
+    <t>C6usIBhfRgooHget/+8KGA==</t>
+  </si>
+  <si>
+    <t>C6uuThhfUwo4G/lB//0KCA==</t>
+  </si>
+  <si>
+    <t>C6uvtBhfPgooFgV3/8EKFg==</t>
+  </si>
+  <si>
+    <t>C6uz8RhffAo3Hfjf/2QKCA==</t>
+  </si>
+  <si>
+    <t>C6u13Rhf1AolOQ4SABYKGg==</t>
+  </si>
+  <si>
+    <t>C6u6eBhgIgo3OfH+/poKBw==</t>
+  </si>
+  <si>
+    <t>C6u93Rhezgo7GvqgAuUKCA==</t>
+  </si>
+  <si>
+    <t>C6u9nRhe9AosEANE/egKGQ==</t>
+  </si>
+  <si>
+    <t>C6u/JxheAwo5Dv09AbMKDA==</t>
+  </si>
+  <si>
+    <t>C6vAtxhd6wooFQU4//UKGA==</t>
+  </si>
+  <si>
+    <t>C6vErRhd8go3E/sN//wKCA==</t>
+  </si>
+  <si>
+    <t>C6vDJhhd5gooJglWAO8KFg==</t>
+  </si>
+  <si>
+    <t>C6vIIBhevAo0H/ia/lAKBw==</t>
+  </si>
+  <si>
+    <t>C6vIuRhfHQokFgQOAyYKFA==</t>
+  </si>
+  <si>
+    <t>C6vKFhhgPgo0F/vL/MMKBA==</t>
   </si>
 </sst>
 </file>
@@ -1208,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H341"/>
+  <dimension ref="A1:H411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="F347" sqref="F347"/>
+    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
+      <selection activeCell="F415" sqref="F415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9181,6 +9370,1739 @@
         <v>14</v>
       </c>
     </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A342" s="3">
+        <v>46</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D342" s="2">
+        <v>34.287723</v>
+      </c>
+      <c r="E342" s="2">
+        <v>-119.154833</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G342">
+        <v>34</v>
+      </c>
+      <c r="H342" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A343" s="3">
+        <v>46</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D343" s="2">
+        <v>34.287776000000001</v>
+      </c>
+      <c r="E343" s="2">
+        <v>-119.15454</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G343">
+        <v>37</v>
+      </c>
+      <c r="H343" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A344" s="3">
+        <v>47</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D344" s="2">
+        <v>34.275888999999999</v>
+      </c>
+      <c r="E344" s="2">
+        <v>-119.138081</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G344">
+        <v>46</v>
+      </c>
+      <c r="H344" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A345" s="3">
+        <v>47</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D345" s="2">
+        <v>34.276063999999998</v>
+      </c>
+      <c r="E345" s="2">
+        <v>-119.137882</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G345">
+        <v>49</v>
+      </c>
+      <c r="H345" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A346" s="3">
+        <v>48</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D346" s="2">
+        <v>34.266846000000001</v>
+      </c>
+      <c r="E346" s="2">
+        <v>-119.125049</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G346">
+        <v>48</v>
+      </c>
+      <c r="H346" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A347" s="3">
+        <v>48</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D347" s="2">
+        <v>34.266933999999999</v>
+      </c>
+      <c r="E347" s="2">
+        <v>-119.124899</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G347">
+        <v>48</v>
+      </c>
+      <c r="H347" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A348" s="3">
+        <v>49</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D348" s="2">
+        <v>34.261664000000003</v>
+      </c>
+      <c r="E348" s="2">
+        <v>-119.10066</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G348">
+        <v>44</v>
+      </c>
+      <c r="H348" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A349" s="3">
+        <v>49</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D349" s="2">
+        <v>34.262247000000002</v>
+      </c>
+      <c r="E349" s="2">
+        <v>-119.100252</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G349">
+        <v>42</v>
+      </c>
+      <c r="H349" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A350" s="3">
+        <v>50</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D350" s="2">
+        <v>34.263607</v>
+      </c>
+      <c r="E350" s="2">
+        <v>-119.088638</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G350">
+        <v>55</v>
+      </c>
+      <c r="H350" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A351" s="3">
+        <v>50</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D351" s="2">
+        <v>34.263793</v>
+      </c>
+      <c r="E351" s="2">
+        <v>-119.088527</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G351">
+        <v>56</v>
+      </c>
+      <c r="H351" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A352" s="3">
+        <v>51</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D352" s="2">
+        <v>34.263654000000002</v>
+      </c>
+      <c r="E352" s="2">
+        <v>-119.056724</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G352">
+        <v>57</v>
+      </c>
+      <c r="H352" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A353" s="3">
+        <v>51</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D353" s="2">
+        <v>34.263801999999998</v>
+      </c>
+      <c r="E353" s="2">
+        <v>-119.056712</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G353">
+        <v>57</v>
+      </c>
+      <c r="H353" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A354" s="3">
+        <v>52</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D354" s="2">
+        <v>34.263618999999998</v>
+      </c>
+      <c r="E354" s="2">
+        <v>-119.027337</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G354">
+        <v>56</v>
+      </c>
+      <c r="H354" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A355" s="3">
+        <v>52</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D355" s="2">
+        <v>34.263902999999999</v>
+      </c>
+      <c r="E355" s="2">
+        <v>-119.027198</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G355">
+        <v>56</v>
+      </c>
+      <c r="H355" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A356" s="3">
+        <v>53</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D356" s="2">
+        <v>34.263677999999999</v>
+      </c>
+      <c r="E356" s="2">
+        <v>-119.009811</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G356">
+        <v>47</v>
+      </c>
+      <c r="H356" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A357" s="3">
+        <v>53</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D357" s="2">
+        <v>34.263849999999998</v>
+      </c>
+      <c r="E357" s="2">
+        <v>-119.009773</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G357">
+        <v>52</v>
+      </c>
+      <c r="H357" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A358" s="3">
+        <v>54</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D358" s="2">
+        <v>34.263438000000001</v>
+      </c>
+      <c r="E358" s="2">
+        <v>-118.989869</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G358">
+        <v>51</v>
+      </c>
+      <c r="H358" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A359" s="3">
+        <v>64</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D359" s="2"/>
+      <c r="E359" s="2"/>
+      <c r="F359" s="1"/>
+      <c r="H359" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A360" s="3">
+        <v>54</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D360" s="2">
+        <v>34.263995999999999</v>
+      </c>
+      <c r="E360" s="2">
+        <v>-118.988073</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G360">
+        <v>50</v>
+      </c>
+      <c r="H360" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A361" s="3">
+        <v>64</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H361" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A362" s="3">
+        <v>65</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D362" s="2">
+        <v>34.271867</v>
+      </c>
+      <c r="E362" s="2">
+        <v>-118.935143</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G362">
+        <v>50</v>
+      </c>
+      <c r="H362" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A363" s="3">
+        <v>65</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D363" s="2">
+        <v>34.272083000000002</v>
+      </c>
+      <c r="E363" s="2">
+        <v>-118.935213</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G363">
+        <v>52</v>
+      </c>
+      <c r="H363" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A364" s="3">
+        <v>66</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D364" s="2">
+        <v>34.278730000000003</v>
+      </c>
+      <c r="E364" s="2">
+        <v>-118.920293</v>
+      </c>
+      <c r="F364" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G364">
+        <v>46</v>
+      </c>
+      <c r="H364" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A365" s="3">
+        <v>66</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D365" s="2">
+        <v>34.279066</v>
+      </c>
+      <c r="E365" s="2">
+        <v>-118.91968199999999</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G365">
+        <v>52</v>
+      </c>
+      <c r="H365" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A366" s="3">
+        <v>67</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D366" s="2">
+        <v>34.278827</v>
+      </c>
+      <c r="E366" s="2">
+        <v>-118.898894</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G366">
+        <v>40</v>
+      </c>
+      <c r="H366" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A367" s="3">
+        <v>67</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D367" s="2">
+        <v>34.279068000000002</v>
+      </c>
+      <c r="E367" s="2">
+        <v>-118.89859199999999</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G367">
+        <v>42</v>
+      </c>
+      <c r="H367" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A368" s="3">
+        <v>68</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D368" s="2">
+        <v>34.278820000000003</v>
+      </c>
+      <c r="E368" s="2">
+        <v>-118.870192</v>
+      </c>
+      <c r="F368" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G368">
+        <v>34</v>
+      </c>
+      <c r="H368" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A369" s="3">
+        <v>68</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D369" s="2">
+        <v>34.279451000000002</v>
+      </c>
+      <c r="E369" s="2">
+        <v>-118.87027399999999</v>
+      </c>
+      <c r="F369" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G369">
+        <v>36</v>
+      </c>
+      <c r="H369" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A370" s="3">
+        <v>69</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D370" s="2">
+        <v>34.289847999999999</v>
+      </c>
+      <c r="E370" s="2">
+        <v>-118.862482</v>
+      </c>
+      <c r="F370" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G370">
+        <v>68</v>
+      </c>
+      <c r="H370" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A371" s="3">
+        <v>69</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D371" s="2">
+        <v>34.291527000000002</v>
+      </c>
+      <c r="E371" s="2">
+        <v>-118.86349800000001</v>
+      </c>
+      <c r="F371" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G371">
+        <v>70</v>
+      </c>
+      <c r="H371" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A372" s="3">
+        <v>70</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D372" s="2">
+        <v>34.293233000000001</v>
+      </c>
+      <c r="E372" s="2">
+        <v>-118.84142799999999</v>
+      </c>
+      <c r="F372" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G372">
+        <v>70</v>
+      </c>
+      <c r="H372" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A373" s="3">
+        <v>71</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D373" s="2"/>
+      <c r="E373" s="2"/>
+      <c r="F373" s="1"/>
+      <c r="H373" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A374" s="3">
+        <v>72</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D374" s="2"/>
+      <c r="E374" s="2"/>
+      <c r="F374" s="1"/>
+      <c r="H374" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A375" s="3">
+        <v>70</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D375" s="2">
+        <v>34.293671000000003</v>
+      </c>
+      <c r="E375" s="2">
+        <v>-118.84141</v>
+      </c>
+      <c r="F375" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G375">
+        <v>71</v>
+      </c>
+      <c r="H375" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A376" s="3">
+        <v>71</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H376" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A377" s="3">
+        <v>72</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D377" s="2">
+        <v>34.283681000000001</v>
+      </c>
+      <c r="E377" s="2">
+        <v>-118.79143999999999</v>
+      </c>
+      <c r="F377" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G377">
+        <v>73</v>
+      </c>
+      <c r="H377" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A378" s="3">
+        <v>91</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D378" s="2">
+        <v>34.282068000000002</v>
+      </c>
+      <c r="E378" s="2">
+        <v>-118.780148</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G378">
+        <v>71</v>
+      </c>
+      <c r="H378" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A379" s="3">
+        <v>91</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D379" s="2">
+        <v>34.282505</v>
+      </c>
+      <c r="E379" s="2">
+        <v>-118.780055</v>
+      </c>
+      <c r="F379" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G379">
+        <v>73</v>
+      </c>
+      <c r="H379" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A380" s="3">
+        <v>92</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D380" s="2">
+        <v>34.282041</v>
+      </c>
+      <c r="E380" s="2">
+        <v>-118.75680800000001</v>
+      </c>
+      <c r="F380" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G380">
+        <v>70</v>
+      </c>
+      <c r="H380" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A381" s="3">
+        <v>92</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D381" s="2">
+        <v>34.282497999999997</v>
+      </c>
+      <c r="E381" s="2">
+        <v>-118.75657699999999</v>
+      </c>
+      <c r="F381" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G381">
+        <v>73</v>
+      </c>
+      <c r="H381" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A382" s="3">
+        <v>93</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D382" s="2">
+        <v>34.281689999999998</v>
+      </c>
+      <c r="E382" s="2">
+        <v>-118.719398</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G382">
+        <v>71</v>
+      </c>
+      <c r="H382" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A383" s="3">
+        <v>93</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D383" s="2">
+        <v>34.282066</v>
+      </c>
+      <c r="E383" s="2">
+        <v>-118.718667</v>
+      </c>
+      <c r="F383" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G383">
+        <v>72</v>
+      </c>
+      <c r="H383" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A384" s="3">
+        <v>94</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D384" s="2">
+        <v>34.281381000000003</v>
+      </c>
+      <c r="E384" s="2">
+        <v>-118.693</v>
+      </c>
+      <c r="F384" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G384">
+        <v>71</v>
+      </c>
+      <c r="H384" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A385" s="3">
+        <v>94</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D385" s="2">
+        <v>34.281846999999999</v>
+      </c>
+      <c r="E385" s="2">
+        <v>-118.69263100000001</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G385">
+        <v>72</v>
+      </c>
+      <c r="H385" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A386" s="3">
+        <v>95</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D386" s="2">
+        <v>34.281362000000001</v>
+      </c>
+      <c r="E386" s="2">
+        <v>-118.67721400000001</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G386">
+        <v>73</v>
+      </c>
+      <c r="H386" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A387" s="3">
+        <v>95</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D387" s="2">
+        <v>34.281790000000001</v>
+      </c>
+      <c r="E387" s="2">
+        <v>-118.676923</v>
+      </c>
+      <c r="F387" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G387">
+        <v>73</v>
+      </c>
+      <c r="H387" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A388" s="3">
+        <v>96</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D388" s="2">
+        <v>34.275283999999999</v>
+      </c>
+      <c r="E388" s="2">
+        <v>-118.657707</v>
+      </c>
+      <c r="F388" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G388">
+        <v>70</v>
+      </c>
+      <c r="H388" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A389" s="3">
+        <v>97</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C389" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H389" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A390" s="3">
+        <v>96</v>
+      </c>
+      <c r="B390" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D390" s="2">
+        <v>34.274970000000003</v>
+      </c>
+      <c r="E390" s="2">
+        <v>-118.656465</v>
+      </c>
+      <c r="F390" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G390">
+        <v>71</v>
+      </c>
+      <c r="H390" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A391" s="3">
+        <v>97</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H391" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A392" s="3">
+        <v>98</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C392" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D392" s="2">
+        <v>34.275227999999998</v>
+      </c>
+      <c r="E392" s="2">
+        <v>-118.623954</v>
+      </c>
+      <c r="F392" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G392">
+        <v>71</v>
+      </c>
+      <c r="H392" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A393" s="3">
+        <v>98</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C393" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D393" s="2">
+        <v>34.275767000000002</v>
+      </c>
+      <c r="E393" s="2">
+        <v>-118.624011</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G393">
+        <v>71</v>
+      </c>
+      <c r="H393" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A394" s="3">
+        <v>99</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C394" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D394" s="2">
+        <v>34.274965999999999</v>
+      </c>
+      <c r="E394" s="2">
+        <v>-118.597786</v>
+      </c>
+      <c r="F394" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G394">
+        <v>73</v>
+      </c>
+      <c r="H394" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A395" s="3">
+        <v>99</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C395" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D395" s="2">
+        <v>34.275337999999998</v>
+      </c>
+      <c r="E395" s="2">
+        <v>-118.597219</v>
+      </c>
+      <c r="F395" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G395">
+        <v>70</v>
+      </c>
+      <c r="H395" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A396" s="3">
+        <v>136</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C396" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D396" s="2">
+        <v>34.273324000000002</v>
+      </c>
+      <c r="E396" s="2">
+        <v>-118.57453099999999</v>
+      </c>
+      <c r="F396" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G396">
+        <v>71</v>
+      </c>
+      <c r="H396" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A397" s="3">
+        <v>136</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C397" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D397" s="2">
+        <v>34.273831000000001</v>
+      </c>
+      <c r="E397" s="2">
+        <v>-118.574406</v>
+      </c>
+      <c r="F397" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G397">
+        <v>71</v>
+      </c>
+      <c r="H397" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A398" s="3">
+        <v>137</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C398" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D398" s="2">
+        <v>34.272171999999998</v>
+      </c>
+      <c r="E398" s="2">
+        <v>-118.555466</v>
+      </c>
+      <c r="F398" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G398">
+        <v>70</v>
+      </c>
+      <c r="H398" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A399" s="3">
+        <v>137</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D399" s="2">
+        <v>34.272463000000002</v>
+      </c>
+      <c r="E399" s="2">
+        <v>-118.555402</v>
+      </c>
+      <c r="F399" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G399">
+        <v>71</v>
+      </c>
+      <c r="H399" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A400" s="3">
+        <v>138</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D400" s="2">
+        <v>34.277895000000001</v>
+      </c>
+      <c r="E400" s="2">
+        <v>-118.527625</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G400">
+        <v>71</v>
+      </c>
+      <c r="H400" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A401" s="3">
+        <v>139</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C401" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H401" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A402" s="3">
+        <v>138</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C402" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D402" s="2">
+        <v>34.278297999999999</v>
+      </c>
+      <c r="E402" s="2">
+        <v>-118.527574</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G402">
+        <v>71</v>
+      </c>
+      <c r="H402" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A403" s="3">
+        <v>139</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C403" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D403" s="2">
+        <v>34.275761000000003</v>
+      </c>
+      <c r="E403" s="2">
+        <v>-118.494204</v>
+      </c>
+      <c r="F403" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G403">
+        <v>70</v>
+      </c>
+      <c r="H403" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A404" s="3">
+        <v>140</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C404" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D404" s="2">
+        <v>34.266357999999997</v>
+      </c>
+      <c r="E404" s="2">
+        <v>-118.482471</v>
+      </c>
+      <c r="F404" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G404">
+        <v>70</v>
+      </c>
+      <c r="H404" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A405" s="3">
+        <v>140</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D405" s="2">
+        <v>34.266818000000001</v>
+      </c>
+      <c r="E405" s="2">
+        <v>-118.481961</v>
+      </c>
+      <c r="F405" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G405">
+        <v>70</v>
+      </c>
+      <c r="H405" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A406" s="3">
+        <v>141</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D406" s="2">
+        <v>34.265804000000003</v>
+      </c>
+      <c r="E406" s="2">
+        <v>-118.46169999999999</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G406">
+        <v>70</v>
+      </c>
+      <c r="H406" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A407" s="3">
+        <v>141</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C407" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D407" s="2">
+        <v>34.266035000000002</v>
+      </c>
+      <c r="E407" s="2">
+        <v>-118.461867</v>
+      </c>
+      <c r="F407" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G407">
+        <v>71</v>
+      </c>
+      <c r="H407" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A408" s="3">
+        <v>142</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D408" s="2">
+        <v>34.26726</v>
+      </c>
+      <c r="E408" s="2">
+        <v>-118.439616</v>
+      </c>
+      <c r="F408" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G408">
+        <v>71</v>
+      </c>
+      <c r="H408" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A409" s="3">
+        <v>142</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D409" s="2">
+        <v>34.267586000000001</v>
+      </c>
+      <c r="E409" s="2">
+        <v>-118.43974799999999</v>
+      </c>
+      <c r="F409" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G409">
+        <v>72</v>
+      </c>
+      <c r="H409" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A410" s="3">
+        <v>143</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C410" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D410" s="2">
+        <v>34.276437999999999</v>
+      </c>
+      <c r="E410" s="2">
+        <v>-118.423338</v>
+      </c>
+      <c r="F410" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G410">
+        <v>70</v>
+      </c>
+      <c r="H410" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A411" s="3">
+        <v>143</v>
+      </c>
+      <c r="B411" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C411" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D411" s="2">
+        <v>34.276814999999999</v>
+      </c>
+      <c r="E411" s="2">
+        <v>-118.423805</v>
+      </c>
+      <c r="F411" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G411">
+        <v>72</v>
+      </c>
+      <c r="H411" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/led_locations.xlsx
+++ b/led_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapti\Documents\traffic-pcb-sb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCDAD20-690C-43EC-9641-6114C1613125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D54FEC-7863-4F6F-8156-9BB5C34D8B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="396">
   <si>
     <t>LED Number</t>
   </si>
@@ -1051,6 +1051,168 @@
   </si>
   <si>
     <t>C6vKFhhgPgo0F/vL/MMKBA==</t>
+  </si>
+  <si>
+    <t>I-210</t>
+  </si>
+  <si>
+    <t>C6vAPBhoVAEHHgerAC0BFw==</t>
+  </si>
+  <si>
+    <t>C6vCLxhodwEXF/oe/6kBBg==</t>
+  </si>
+  <si>
+    <t>C6vDzhhoaQEHIwdF/FwBGw==</t>
+  </si>
+  <si>
+    <t>C6vGNBhnhgEcJvdgAgUBBw==</t>
+  </si>
+  <si>
+    <t>C6vJFhhlLgEMFQOp/KQBHA==</t>
+  </si>
+  <si>
+    <t>C6vJ9RhkcAEcF/wKA3oBCw==</t>
+  </si>
+  <si>
+    <t>C6vKyxhjnQEMEgMS/R8BDBsEkvu6ARs=</t>
+  </si>
+  <si>
+    <t>C6vLkRhi7gEcFPyMAzwBDA==</t>
+  </si>
+  <si>
+    <t>C6vQ6BhfugEZJvgLA48BHBX8gANQAQw=</t>
+  </si>
+  <si>
+    <t>C6vOWhhgSAELIghV/jABGA==</t>
+  </si>
+  <si>
+    <t>C6vVwRhfLwEYKvWYASsBCQ==</t>
+  </si>
+  <si>
+    <t>C6vXUxhe8wEILwiU+e0BHA==</t>
+  </si>
+  <si>
+    <t>C6vaOxhdUwEcLfZmA/wBCA==</t>
+  </si>
+  <si>
+    <t>C6vlGxhX4wEZd+irC6sBDA==</t>
+  </si>
+  <si>
+    <t>C6vbUhhcHgEMUw/j93wBGA==</t>
+  </si>
+  <si>
+    <t>C6viuRhYJgEIKQn6/jUBGQ==</t>
+  </si>
+  <si>
+    <t>C6vnYBhXUAEKHQYW/JYBGg==</t>
+  </si>
+  <si>
+    <t>C6voxxhWlwEbIvgdAsoBCQ==</t>
+  </si>
+  <si>
+    <t>C6vqNhhVuQEKDAK0/pkBGw==</t>
+  </si>
+  <si>
+    <t>C6vtWxhUCwEaL/YvBXUBCw==</t>
+  </si>
+  <si>
+    <t>C6vu9BhTXQEKCgJ6/5gBGA==</t>
+  </si>
+  <si>
+    <t>C6v1thhQnAEeVe4RB2ABCg==</t>
+  </si>
+  <si>
+    <t>C6vwHBhTLQEICwLP//8BCCkIUPuXARw=</t>
+  </si>
+  <si>
+    <t>C6v1SxhRHgEMEAGR/NUBHQ==</t>
+  </si>
+  <si>
+    <t>C6v3PRhO3wEaF/y6A7oBDg==</t>
+  </si>
+  <si>
+    <t>C6v4hhhOGAELEALV/Z4BHQ==</t>
+  </si>
+  <si>
+    <t>C6v5DhhNwgEbE/waAmQBCg==</t>
+  </si>
+  <si>
+    <t>C6v51RhKfwEQCQB+/i0BHg==</t>
+  </si>
+  <si>
+    <t>C6v5+RhKEgEeEgAUA9kBEA==</t>
+  </si>
+  <si>
+    <t>C6v9MxhJIAEIEgSzAAABFw==</t>
+  </si>
+  <si>
+    <t>C6v9tRhJLwEYCP3OAAEBCA==</t>
+  </si>
+  <si>
+    <t>C6v/ZBhJIAEIEwTYADgBGA==</t>
+  </si>
+  <si>
+    <t>C6wEmRhJUAEYKPYQ/9ABBw==</t>
+  </si>
+  <si>
+    <t>C6wFExhJQgEICwLO/2cBGw==</t>
+  </si>
+  <si>
+    <t>C6wHExhIlgEaF/qwAY8BCA==</t>
+  </si>
+  <si>
+    <t>C6wIgBhIZAEHGAX0AFsBGA==</t>
+  </si>
+  <si>
+    <t>C6wIzxhIfAEXD/xHADkBCg==</t>
+  </si>
+  <si>
+    <t>C6wLRhhIjwEIGQZTAAgBGA==</t>
+  </si>
+  <si>
+    <t>C6wMQxhIoQEYEfup//gBCA==</t>
+  </si>
+  <si>
+    <t>C6wRrBhIIAEKGwV+/LMBGw==</t>
+  </si>
+  <si>
+    <t>C6wTIxhHdwEaG/npAk4BCA==</t>
+  </si>
+  <si>
+    <t>C6wUOxhGlgEKHgd2/xIBGA==</t>
+  </si>
+  <si>
+    <t>C6wV4hhGMQEYHPocAroBCg==</t>
+  </si>
+  <si>
+    <t>C6wXtRhGJwEIHwfv//4BFw==</t>
+  </si>
+  <si>
+    <t>C6wYgBhGMAEYFvpjAAIBCA==</t>
+  </si>
+  <si>
+    <t>C6wbZxhGJgEHFAUs/+sBCBAD8f72ARk=</t>
+  </si>
+  <si>
+    <t>C6wdDhhGNQEYEfuX/+kBBw==</t>
+  </si>
+  <si>
+    <t>C6wfpxhFoAEKJAiO/0wBFw==</t>
+  </si>
+  <si>
+    <t>C6wiQBhFBgEWL/TaAooBCA==</t>
+  </si>
+  <si>
+    <t>C6wmexhECwEMEgPy/twBFw==</t>
+  </si>
+  <si>
+    <t>C6wmyRhDzAEcEP0MAkkBCQ==</t>
+  </si>
+  <si>
+    <t>C6woURhDgwEHGgav//0BGA==</t>
+  </si>
+  <si>
+    <t>C6wpiRhDkAEYGPoZAH8BDA==</t>
   </si>
 </sst>
 </file>
@@ -1397,10 +1559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H411"/>
+  <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
-      <selection activeCell="F415" sqref="F415"/>
+    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
+      <selection activeCell="D472" sqref="D472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11103,6 +11265,1482 @@
         <v>13</v>
       </c>
     </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A412" s="3">
+        <v>163</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C412" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D412" s="2">
+        <v>34.323138999999998</v>
+      </c>
+      <c r="E412" s="2">
+        <v>-118.47297500000001</v>
+      </c>
+      <c r="F412" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G412">
+        <v>73</v>
+      </c>
+      <c r="H412" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A413" s="3">
+        <v>163</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C413" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D413" s="2">
+        <v>34.323484000000001</v>
+      </c>
+      <c r="E413" s="2">
+        <v>-118.472919</v>
+      </c>
+      <c r="F413" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G413">
+        <v>71</v>
+      </c>
+      <c r="H413" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A414" s="3">
+        <v>164</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D414" s="2">
+        <v>34.323121999999998</v>
+      </c>
+      <c r="E414" s="2">
+        <v>-118.45002100000001</v>
+      </c>
+      <c r="F414" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G414">
+        <v>74</v>
+      </c>
+      <c r="H414" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A415" s="3">
+        <v>164</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C415" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D415" s="2">
+        <v>34.323411999999998</v>
+      </c>
+      <c r="E415" s="2">
+        <v>-118.449697</v>
+      </c>
+      <c r="F415" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G415">
+        <v>72</v>
+      </c>
+      <c r="H415" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A416" s="3">
+        <v>165</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C416" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D416" s="2">
+        <v>34.305003999999997</v>
+      </c>
+      <c r="E416" s="2">
+        <v>-118.426039</v>
+      </c>
+      <c r="F416" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G416">
+        <v>72</v>
+      </c>
+      <c r="H416" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A417" s="3">
+        <v>165</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C417" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D417" s="2">
+        <v>34.305259</v>
+      </c>
+      <c r="E417" s="2">
+        <v>-118.425635</v>
+      </c>
+      <c r="F417" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G417">
+        <v>70</v>
+      </c>
+      <c r="H417" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A418" s="3">
+        <v>166</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C418" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D418" s="2">
+        <v>34.293748999999998</v>
+      </c>
+      <c r="E418" s="2">
+        <v>-118.413918</v>
+      </c>
+      <c r="F418" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G418">
+        <v>73</v>
+      </c>
+      <c r="H418" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A419" s="3">
+        <v>167</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H419" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A420" s="3">
+        <v>166</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D420" s="2">
+        <v>34.294024</v>
+      </c>
+      <c r="E420" s="2">
+        <v>-118.413489</v>
+      </c>
+      <c r="F420" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G420">
+        <v>70</v>
+      </c>
+      <c r="H420" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A421" s="3">
+        <v>167</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D421" s="2">
+        <v>34.279552000000002</v>
+      </c>
+      <c r="E421" s="2">
+        <v>-118.397988</v>
+      </c>
+      <c r="F421" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G421">
+        <v>73</v>
+      </c>
+      <c r="H421" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A422" s="3">
+        <v>168</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D422" s="2">
+        <v>34.276670000000003</v>
+      </c>
+      <c r="E422" s="2">
+        <v>-118.38825799999999</v>
+      </c>
+      <c r="F422" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G422">
+        <v>75</v>
+      </c>
+      <c r="H422" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A423" s="3">
+        <v>168</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D423" s="2">
+        <v>34.274267999999999</v>
+      </c>
+      <c r="E423" s="2">
+        <v>-118.372438</v>
+      </c>
+      <c r="F423" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G423">
+        <v>75</v>
+      </c>
+      <c r="H423" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A424" s="3">
+        <v>169</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D424" s="2">
+        <v>34.271366999999998</v>
+      </c>
+      <c r="E424" s="2">
+        <v>-118.348393</v>
+      </c>
+      <c r="F424" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G424">
+        <v>69</v>
+      </c>
+      <c r="H424" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A425" s="3">
+        <v>170</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H425" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A426" s="3">
+        <v>169</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D426" s="2">
+        <v>34.271787000000003</v>
+      </c>
+      <c r="E426" s="2">
+        <v>-118.348083</v>
+      </c>
+      <c r="F426" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G426">
+        <v>76</v>
+      </c>
+      <c r="H426" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A427" s="3">
+        <v>170</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D427" s="2">
+        <v>34.255423</v>
+      </c>
+      <c r="E427" s="2">
+        <v>-118.325374</v>
+      </c>
+      <c r="F427" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G427">
+        <v>75</v>
+      </c>
+      <c r="H427" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A428" s="3">
+        <v>171</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H428" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A429" s="3">
+        <v>253</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H429" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A430" s="3">
+        <v>254</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H430" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A431" s="3">
+        <v>171</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D431" s="2">
+        <v>34.245925999999997</v>
+      </c>
+      <c r="E431" s="2">
+        <v>-118.321101</v>
+      </c>
+      <c r="F431" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G431">
+        <v>70</v>
+      </c>
+      <c r="H431" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A432" s="3">
+        <v>253</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H432" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A433" s="3">
+        <v>254</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D433" s="2">
+        <v>34.233061999999997</v>
+      </c>
+      <c r="E433" s="2">
+        <v>-118.275668</v>
+      </c>
+      <c r="F433" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G433">
+        <v>73</v>
+      </c>
+      <c r="H433" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A434" s="3">
+        <v>255</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D434" s="2">
+        <v>34.228394000000002</v>
+      </c>
+      <c r="E434" s="2">
+        <v>-118.257812</v>
+      </c>
+      <c r="F434" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G434">
+        <v>75</v>
+      </c>
+      <c r="H434" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A435" s="3">
+        <v>255</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D435" s="2">
+        <v>34.229005999999998</v>
+      </c>
+      <c r="E435" s="2">
+        <v>-118.25778</v>
+      </c>
+      <c r="F435" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G435">
+        <v>72</v>
+      </c>
+      <c r="H435" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A436" s="3">
+        <v>256</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D436" s="2">
+        <v>34.219222000000002</v>
+      </c>
+      <c r="E436" s="2">
+        <v>-118.24171800000001</v>
+      </c>
+      <c r="F436" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G436">
+        <v>73</v>
+      </c>
+      <c r="H436" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A437" s="3">
+        <v>256</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D437" s="2">
+        <v>34.219667999999999</v>
+      </c>
+      <c r="E437" s="2">
+        <v>-118.241382</v>
+      </c>
+      <c r="F437" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G437">
+        <v>73</v>
+      </c>
+      <c r="H437" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A438" s="3">
+        <v>257</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D438" s="2">
+        <v>34.207711000000003</v>
+      </c>
+      <c r="E438" s="2">
+        <v>-118.218271</v>
+      </c>
+      <c r="F438" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G438">
+        <v>73</v>
+      </c>
+      <c r="H438" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A439" s="3">
+        <v>257</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D439" s="2">
+        <v>34.208029000000003</v>
+      </c>
+      <c r="E439" s="2">
+        <v>-118.218138</v>
+      </c>
+      <c r="F439" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G439">
+        <v>71</v>
+      </c>
+      <c r="H439" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A440" s="3">
+        <v>258</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H440" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A441" s="3">
+        <v>258</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D441" s="2">
+        <v>34.204509999999999</v>
+      </c>
+      <c r="E441" s="2">
+        <v>-118.19533699999999</v>
+      </c>
+      <c r="F441" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G441">
+        <v>75</v>
+      </c>
+      <c r="H441" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A442" s="3">
+        <v>259</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D442" s="2">
+        <v>34.190524000000003</v>
+      </c>
+      <c r="E442" s="2">
+        <v>-118.181257</v>
+      </c>
+      <c r="F442" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G442">
+        <v>73</v>
+      </c>
+      <c r="H442" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A443" s="3">
+        <v>259</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D443" s="2">
+        <v>34.190576999999998</v>
+      </c>
+      <c r="E443" s="2">
+        <v>-118.180848</v>
+      </c>
+      <c r="F443" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G443">
+        <v>70</v>
+      </c>
+      <c r="H443" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A444" s="3">
+        <v>260</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D444" s="2">
+        <v>34.177294000000003</v>
+      </c>
+      <c r="E444" s="2">
+        <v>-118.164022</v>
+      </c>
+      <c r="F444" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G444">
+        <v>73</v>
+      </c>
+      <c r="H444" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A445" s="3">
+        <v>260</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D445" s="2">
+        <v>34.177759999999999</v>
+      </c>
+      <c r="E445" s="2">
+        <v>-118.163803</v>
+      </c>
+      <c r="F445" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G445">
+        <v>74</v>
+      </c>
+      <c r="H445" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A446" s="3">
+        <v>261</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C446" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D446" s="2">
+        <v>34.157499999999999</v>
+      </c>
+      <c r="E446" s="2">
+        <v>-118.15881</v>
+      </c>
+      <c r="F446" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G446">
+        <v>65</v>
+      </c>
+      <c r="H446" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A447" s="3">
+        <v>261</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C447" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D447" s="2">
+        <v>34.157612999999998</v>
+      </c>
+      <c r="E447" s="2">
+        <v>-118.158147</v>
+      </c>
+      <c r="F447" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G447">
+        <v>69</v>
+      </c>
+      <c r="H447" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A448" s="3">
+        <v>280</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C448" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D448" s="2">
+        <v>34.151544999999999</v>
+      </c>
+      <c r="E448" s="2">
+        <v>-118.13958599999999</v>
+      </c>
+      <c r="F448" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G448">
+        <v>71</v>
+      </c>
+      <c r="H448" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A449" s="3">
+        <v>280</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C449" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D449" s="2">
+        <v>34.152104999999999</v>
+      </c>
+      <c r="E449" s="2">
+        <v>-118.139493</v>
+      </c>
+      <c r="F449" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G449">
+        <v>67</v>
+      </c>
+      <c r="H449" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A450" s="3">
+        <v>281</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C450" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D450" s="2">
+        <v>34.152106000000003</v>
+      </c>
+      <c r="E450" s="2">
+        <v>-118.120279</v>
+      </c>
+      <c r="F450" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G450">
+        <v>70</v>
+      </c>
+      <c r="H450" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A451" s="3">
+        <v>281</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C451" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D451" s="2">
+        <v>34.152566999999998</v>
+      </c>
+      <c r="E451" s="2">
+        <v>-118.12029200000001</v>
+      </c>
+      <c r="F451" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G451">
+        <v>69</v>
+      </c>
+      <c r="H451" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A452" s="3">
+        <v>282</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D452" s="2">
+        <v>34.152326000000002</v>
+      </c>
+      <c r="E452" s="2">
+        <v>-118.096114</v>
+      </c>
+      <c r="F452" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G452">
+        <v>72</v>
+      </c>
+      <c r="H452" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A453" s="3">
+        <v>282</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C453" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D453" s="2">
+        <v>34.152816000000001</v>
+      </c>
+      <c r="E453" s="2">
+        <v>-118.095489</v>
+      </c>
+      <c r="F453" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G453">
+        <v>66</v>
+      </c>
+      <c r="H453" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A454" s="3">
+        <v>283</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C454" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D454" s="2">
+        <v>34.147663000000001</v>
+      </c>
+      <c r="E454" s="2">
+        <v>-118.07698600000001</v>
+      </c>
+      <c r="F454" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G454">
+        <v>69</v>
+      </c>
+      <c r="H454" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A455" s="3">
+        <v>283</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C455" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D455" s="2">
+        <v>34.148215</v>
+      </c>
+      <c r="E455" s="2">
+        <v>-118.07695099999999</v>
+      </c>
+      <c r="F455" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G455">
+        <v>67</v>
+      </c>
+      <c r="H455" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A456" s="3">
+        <v>284</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C456" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D456" s="2">
+        <v>34.148529000000003</v>
+      </c>
+      <c r="E456" s="2">
+        <v>-118.058494</v>
+      </c>
+      <c r="F456" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G456">
+        <v>70</v>
+      </c>
+      <c r="H456" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A457" s="3">
+        <v>284</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C457" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D457" s="2">
+        <v>34.149031000000001</v>
+      </c>
+      <c r="E457" s="2">
+        <v>-118.05877099999999</v>
+      </c>
+      <c r="F457" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G457">
+        <v>67</v>
+      </c>
+      <c r="H457" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A458" s="3">
+        <v>285</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C458" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D458" s="2">
+        <v>34.144421999999999</v>
+      </c>
+      <c r="E458" s="2">
+        <v>-118.02451600000001</v>
+      </c>
+      <c r="F458" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G458">
+        <v>70</v>
+      </c>
+      <c r="H458" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A459" s="3">
+        <v>285</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C459" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D459" s="2">
+        <v>34.144762</v>
+      </c>
+      <c r="E459" s="2">
+        <v>-118.02418400000001</v>
+      </c>
+      <c r="F459" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G459">
+        <v>66</v>
+      </c>
+      <c r="H459" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A460" s="3">
+        <v>286</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C460" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D460" s="2">
+        <v>34.135590000000001</v>
+      </c>
+      <c r="E460" s="2">
+        <v>-118.00795599999999</v>
+      </c>
+      <c r="F460" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G460">
+        <v>68</v>
+      </c>
+      <c r="H460" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A461" s="3">
+        <v>286</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C461" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D461" s="2">
+        <v>34.135899000000002</v>
+      </c>
+      <c r="E461" s="2">
+        <v>-118.00773</v>
+      </c>
+      <c r="F461" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G461">
+        <v>68</v>
+      </c>
+      <c r="H461" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A462" s="3">
+        <v>287</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C462" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D462" s="2">
+        <v>34.135297000000001</v>
+      </c>
+      <c r="E462" s="2">
+        <v>-117.993053</v>
+      </c>
+      <c r="F462" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G462">
+        <v>69</v>
+      </c>
+      <c r="H462" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A463" s="3">
+        <v>287</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C463" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D463" s="2">
+        <v>34.135621</v>
+      </c>
+      <c r="E463" s="2">
+        <v>-117.992902</v>
+      </c>
+      <c r="F463" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G463">
+        <v>71</v>
+      </c>
+      <c r="H463" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A464" s="3">
+        <v>288</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C464" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D464" s="2">
+        <v>34.135381000000002</v>
+      </c>
+      <c r="E464" s="2">
+        <v>-117.966244</v>
+      </c>
+      <c r="F464" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G464">
+        <v>69</v>
+      </c>
+      <c r="H464" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A465" s="3">
+        <v>288</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C465" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D465" s="2">
+        <v>34.135742999999998</v>
+      </c>
+      <c r="E465" s="2">
+        <v>-117.966309</v>
+      </c>
+      <c r="F465" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G465">
+        <v>70</v>
+      </c>
+      <c r="H465" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A466" s="3">
+        <v>315</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C466" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D466" s="2">
+        <v>34.129843000000001</v>
+      </c>
+      <c r="E466" s="2">
+        <v>-117.94432399999999</v>
+      </c>
+      <c r="F466" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G466">
+        <v>68</v>
+      </c>
+      <c r="H466" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A467" s="3">
+        <v>315</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C467" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D467" s="2">
+        <v>34.130274</v>
+      </c>
+      <c r="E467" s="2">
+        <v>-117.944079</v>
+      </c>
+      <c r="F467" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G467">
+        <v>70</v>
+      </c>
+      <c r="H467" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A468" s="3">
+        <v>314</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C468" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D468" s="2">
+        <v>34.123108000000002</v>
+      </c>
+      <c r="E468" s="2">
+        <v>-117.91319900000001</v>
+      </c>
+      <c r="F468" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G468">
+        <v>66</v>
+      </c>
+      <c r="H468" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A469" s="3">
+        <v>314</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C469" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D469" s="2">
+        <v>34.123157999999997</v>
+      </c>
+      <c r="E469" s="2">
+        <v>-117.912503</v>
+      </c>
+      <c r="F469" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G469">
+        <v>66</v>
+      </c>
+      <c r="H469" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A470" s="3">
+        <v>313</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C470" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D470" s="2">
+        <v>34.120911</v>
+      </c>
+      <c r="E470" s="2">
+        <v>-117.90118099999999</v>
+      </c>
+      <c r="F470" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G470">
+        <v>68</v>
+      </c>
+      <c r="H470" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A471" s="3">
+        <v>313</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D471" s="2">
+        <v>34.121290000000002</v>
+      </c>
+      <c r="E471" s="2">
+        <v>-117.901168</v>
+      </c>
+      <c r="F471" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G471">
+        <v>66</v>
+      </c>
+      <c r="H471" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/led_locations.xlsx
+++ b/led_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapti\Documents\traffic-pcb-sb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D54FEC-7863-4F6F-8156-9BB5C34D8B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6E55C0-706A-47F0-8EBB-C26D7C352AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="479">
   <si>
     <t>LED Number</t>
   </si>
@@ -1213,6 +1213,255 @@
   </si>
   <si>
     <t>C6wpiRhDkAEYGPoZAH8BDA==</t>
+  </si>
+  <si>
+    <t>C6uZ3BiUkQEOqxh05FABHQ==</t>
+  </si>
+  <si>
+    <t>C6uk2RiIWQEer+aoHJYBCw==</t>
+  </si>
+  <si>
+    <t>C6ulQRiHqQENEgJp/MQBHQ==</t>
+  </si>
+  <si>
+    <t>C6umuxiBIgEAUPv2D3sBDg==</t>
+  </si>
+  <si>
+    <t>C6ummhiASwEPJQYK+nUBGg==</t>
+  </si>
+  <si>
+    <t>C6unoRh+wgEcG/4TBRgBEA==</t>
+  </si>
+  <si>
+    <t>C6upaxh9tgEKFgQU/O8BGw==</t>
+  </si>
+  <si>
+    <t>C6usRBh7LwEdN/YOB6sBDA==</t>
+  </si>
+  <si>
+    <t>C6us6hh52gENHgKV+jIBHg==</t>
+  </si>
+  <si>
+    <t>C6utyhh4BgEeI/y6BskBDg==</t>
+  </si>
+  <si>
+    <t>C6uuHhh3JQEOGgGh+rEBHw==</t>
+  </si>
+  <si>
+    <t>C6uupBh15AEfF/4sBJIBDg==</t>
+  </si>
+  <si>
+    <t>C6uu4Bh0rAEPIQLt+aoBHQ==</t>
+  </si>
+  <si>
+    <t>C6uvlRhy6gEeIP37BmUBDg==</t>
+  </si>
+  <si>
+    <t>C6uwPRhxuAENIQOG+dwBHQ==</t>
+  </si>
+  <si>
+    <t>C6uxghhv/gEdIvveBkUBDg==</t>
+  </si>
+  <si>
+    <t>C6ux4Rhu2wENZxNp8z8BHQ==</t>
+  </si>
+  <si>
+    <t>C6u5EBhrDQEaV+/KCpkBDQ==</t>
+  </si>
+  <si>
+    <t>C6u67Rho6gENKQb5+eYBHQ==</t>
+  </si>
+  <si>
+    <t>C6u8UxhoBwEbK/kABn4BCg==</t>
+  </si>
+  <si>
+    <t>C6u8wBhnqgEMDgIx/cMBHA==</t>
+  </si>
+  <si>
+    <t>C6u/DxhlJwEcJvojBisBCw==</t>
+  </si>
+  <si>
+    <t>C6u+LRhmEgENGAPD+/gBHA==</t>
+  </si>
+  <si>
+    <t>C6vAgxhjqQEcE/zhAzQBDA==</t>
+  </si>
+  <si>
+    <t>C6vCbhhhxwELJwYE+aIBHA==</t>
+  </si>
+  <si>
+    <t>C6vD1BhgbwEdLPjiBusBDA==</t>
+  </si>
+  <si>
+    <t>C6vFPBhezwEMGQOk+68BHA==</t>
+  </si>
+  <si>
+    <t>C6vGjBhdUAEdD/3wApIBDA==</t>
+  </si>
+  <si>
+    <t>C6vIJRhbpgEMCwHo/jIBHA==</t>
+  </si>
+  <si>
+    <t>C6vLHRhY6wEcPPY0CW4BDQ==</t>
+  </si>
+  <si>
+    <t>C6vKURhZmwEMHAUF/AEBGQ==</t>
+  </si>
+  <si>
+    <t>C6vMqBhXvgEIDgOX/2sBGQ==</t>
+  </si>
+  <si>
+    <t>C6vPgRhXDgEaGfoTAYcBCQ==</t>
+  </si>
+  <si>
+    <t>C6vRiBhWxAEHDQLe/xABHA==</t>
+  </si>
+  <si>
+    <t>C6vWwhhUoQEbF/uXAr8BGCf2/QHRAQg=</t>
+  </si>
+  <si>
+    <t>C6vUnBhV4gEICgJc/18BGw==</t>
+  </si>
+  <si>
+    <t>C6vXshhTxgEMMwhJ+AcBGw==</t>
+  </si>
+  <si>
+    <t>C6vY1BhSXQEdHfuPBN0BDA==</t>
+  </si>
+  <si>
+    <t>C6vdXRhOtgENEQML/YABHQ==</t>
+  </si>
+  <si>
+    <t>C6vdxRhOWAEcE/ysAtIBDA==</t>
+  </si>
+  <si>
+    <t>C6veyBhNiwENEQJK/PgBGw==</t>
+  </si>
+  <si>
+    <t>C6vfBBhNBgEeEv1TAtUBCw==</t>
+  </si>
+  <si>
+    <t>C6vhOxhLDQENHwUz+2ABHQ==</t>
+  </si>
+  <si>
+    <t>C6viaRhJmwEbHvt3BNEBCw==</t>
+  </si>
+  <si>
+    <t>C6vjpxhI5QEMEgEd/GEBHg==</t>
+  </si>
+  <si>
+    <t>C6vkIRhHmwEfCP+VAbABDw==</t>
+  </si>
+  <si>
+    <t>C6vkLBhHNQEOLgMv9sUBHg==</t>
+  </si>
+  <si>
+    <t>C6vlBhhEjgEeIP4WBo0BDw==</t>
+  </si>
+  <si>
+    <t>C6vmxBhBrQELEQOe/f4BGw==</t>
+  </si>
+  <si>
+    <t>C6vneRhBUQEaEfzGAlQBDQ==</t>
+  </si>
+  <si>
+    <t>C6vpexg/5QENFAMK/KQBHA==</t>
+  </si>
+  <si>
+    <t>C6vqUBg++gEcGPwAA+ABCw==</t>
+  </si>
+  <si>
+    <t>C6vrkRg9tAELEwPk/ZkBGQ==</t>
+  </si>
+  <si>
+    <t>C6vtqRg8iAEZEPy5AdYBCw==</t>
+  </si>
+  <si>
+    <t>C6vu0Rg7eQEQHgGM+fUBHg==</t>
+  </si>
+  <si>
+    <t>C6vvoRg4gQEeGv5NBUEBDw==</t>
+  </si>
+  <si>
+    <t>I-10</t>
+  </si>
+  <si>
+    <t>C6vy8Bg3mAEILgrvAl4BGA==</t>
+  </si>
+  <si>
+    <t>C6v0jRg3mAEYEPwDABMBBw==</t>
+  </si>
+  <si>
+    <t>C6v4CRg4swEIEAOjAOwBFQ==</t>
+  </si>
+  <si>
+    <t>C6v5Dxg4ygEUGfon/rIBBQ==</t>
+  </si>
+  <si>
+    <t>C6v7kxg6GwEEGwaHANkBFw==</t>
+  </si>
+  <si>
+    <t>C6v+ARg6jgEYGfoc/tYBBQ==</t>
+  </si>
+  <si>
+    <t>C6v+nhg6gQEIEQRKAA4BGA==</t>
+  </si>
+  <si>
+    <t>C6wAFxg6lQEYEvuG//IBCA==</t>
+  </si>
+  <si>
+    <t>C6wE8hg6lAEIDQNvAAoBGA==</t>
+  </si>
+  <si>
+    <t>C6wF6Rg6pwEXEfu7AAEBCA==</t>
+  </si>
+  <si>
+    <t>C6wH9Bg6nQEIGAX5ABYBGA==</t>
+  </si>
+  <si>
+    <t>C6wJFBg6sQEXDfy6//YBCA==</t>
+  </si>
+  <si>
+    <t>C6wL2xg6uwEYGPoJ/+oBCA==</t>
+  </si>
+  <si>
+    <t>C6wPvBg57gEIMwxS/l4BFw==</t>
+  </si>
+  <si>
+    <t>C6wQ7Rg55wEYFvp+ALUBCg==</t>
+  </si>
+  <si>
+    <t>C6wWGRg5TAEXEPwJACUBCQ==</t>
+  </si>
+  <si>
+    <t>C6wXZhg5bAEGCwLuAGkBFw==</t>
+  </si>
+  <si>
+    <t>C6wZxRg5yQEXDvx6/4cBBw==</t>
+  </si>
+  <si>
+    <t>C6wadhg51gEHIQhHARQBFw==</t>
+  </si>
+  <si>
+    <t>C6wgaRg6lwEXF/pT/2YBBw==</t>
+  </si>
+  <si>
+    <t>C6whXBg6qQEHEAQAAAgBGA==</t>
+  </si>
+  <si>
+    <t>C6wjcRg6tAEYEPv3AAQBBw==</t>
+  </si>
+  <si>
+    <t>C6wlAxg6pwEIGwbe//MBGA==</t>
+  </si>
+  <si>
+    <t>C6wm/Rg6rAEYHvhjABEBCA==</t>
+  </si>
+  <si>
+    <t>C6woNhg6oQEIGQZj/+wBGA==</t>
+  </si>
+  <si>
+    <t>C6wqXBg6pQEYHfjFAA4BCA==</t>
   </si>
 </sst>
 </file>
@@ -1559,10 +1808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H471"/>
+  <dimension ref="A1:H567"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="D472" sqref="D472"/>
+    <sheetView tabSelected="1" topLeftCell="A520" workbookViewId="0">
+      <selection activeCell="E567" sqref="E567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12741,6 +12990,2352 @@
         <v>13</v>
       </c>
     </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A472" s="3">
+        <v>118</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C472" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D472" s="2">
+        <v>34.562778000000002</v>
+      </c>
+      <c r="E472" s="2">
+        <v>-118.683605</v>
+      </c>
+      <c r="F472" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G472">
+        <v>72</v>
+      </c>
+      <c r="H472" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A473" s="3">
+        <v>119</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C473" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H473" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A474" s="3">
+        <v>120</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C474" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H474" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A475" s="3">
+        <v>121</v>
+      </c>
+      <c r="B475" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C475" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H475" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A476" s="3">
+        <v>118</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C476" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D476" s="2">
+        <v>34.563246999999997</v>
+      </c>
+      <c r="E476" s="2">
+        <v>-118.682947</v>
+      </c>
+      <c r="F476" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G476">
+        <v>64</v>
+      </c>
+      <c r="H476" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A477" s="3">
+        <v>119</v>
+      </c>
+      <c r="B477" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C477" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H477" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A478" s="3">
+        <v>120</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C478" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H478" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A479" s="3">
+        <v>121</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C479" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H479" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A480" s="3">
+        <v>122</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C480" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D480" s="2">
+        <v>34.491003999999997</v>
+      </c>
+      <c r="E480" s="2">
+        <v>-118.620514</v>
+      </c>
+      <c r="F480" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G480">
+        <v>73</v>
+      </c>
+      <c r="H480" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A481" s="3">
+        <v>122</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C481" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D481" s="2">
+        <v>34.491188000000001</v>
+      </c>
+      <c r="E481" s="2">
+        <v>-118.62002200000001</v>
+      </c>
+      <c r="F481" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G481">
+        <v>72</v>
+      </c>
+      <c r="H481" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A482" s="3">
+        <v>123</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C482" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H482" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A483" s="3">
+        <v>124</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H483" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A484" s="3">
+        <v>125</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C484" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D484" s="2">
+        <v>34.449930000000002</v>
+      </c>
+      <c r="E484" s="2">
+        <v>-118.61372799999999</v>
+      </c>
+      <c r="F484" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G484">
+        <v>70</v>
+      </c>
+      <c r="H484" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A485" s="3">
+        <v>125</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D485" s="2">
+        <v>34.450118000000003</v>
+      </c>
+      <c r="E485" s="2">
+        <v>-118.613421</v>
+      </c>
+      <c r="F485" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="G485">
+        <v>71</v>
+      </c>
+      <c r="H485" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A486" s="3">
+        <v>126</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C486" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D486" s="2">
+        <v>34.438529000000003</v>
+      </c>
+      <c r="E486" s="2">
+        <v>-118.5972</v>
+      </c>
+      <c r="F486" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G486">
+        <v>68</v>
+      </c>
+      <c r="H486" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A487" s="3">
+        <v>126</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C487" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D487" s="2">
+        <v>34.438822000000002</v>
+      </c>
+      <c r="E487" s="2">
+        <v>-118.596958</v>
+      </c>
+      <c r="F487" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G487">
+        <v>71</v>
+      </c>
+      <c r="H487" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A488" s="3">
+        <v>127</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C488" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D488" s="2">
+        <v>34.416642000000003</v>
+      </c>
+      <c r="E488" s="2">
+        <v>-118.580106</v>
+      </c>
+      <c r="F488" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G488">
+        <v>67</v>
+      </c>
+      <c r="H488" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A489" s="3">
+        <v>127</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D489" s="2">
+        <v>34.416685000000001</v>
+      </c>
+      <c r="E489" s="2">
+        <v>-118.579657</v>
+      </c>
+      <c r="F489" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G489">
+        <v>72</v>
+      </c>
+      <c r="H489" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A490" s="3">
+        <v>128</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C490" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D490" s="2">
+        <v>34.398218</v>
+      </c>
+      <c r="E490" s="2">
+        <v>-118.572524</v>
+      </c>
+      <c r="F490" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G490">
+        <v>66</v>
+      </c>
+      <c r="H490" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A491" s="3">
+        <v>128</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C491" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D491" s="2">
+        <v>34.398390999999997</v>
+      </c>
+      <c r="E491" s="2">
+        <v>-118.571989</v>
+      </c>
+      <c r="F491" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G491">
+        <v>73</v>
+      </c>
+      <c r="H491" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A492" s="3">
+        <v>129</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C492" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D492" s="2">
+        <v>34.381309000000002</v>
+      </c>
+      <c r="E492" s="2">
+        <v>-118.567223</v>
+      </c>
+      <c r="F492" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G492">
+        <v>68</v>
+      </c>
+      <c r="H492" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A493" s="3">
+        <v>129</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D493" s="2">
+        <v>34.381591999999998</v>
+      </c>
+      <c r="E493" s="2">
+        <v>-118.566743</v>
+      </c>
+      <c r="F493" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G493">
+        <v>70</v>
+      </c>
+      <c r="H493" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A494" s="3">
+        <v>130</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D494" s="2">
+        <v>34.366025</v>
+      </c>
+      <c r="E494" s="2">
+        <v>-118.557295</v>
+      </c>
+      <c r="F494" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G494">
+        <v>68</v>
+      </c>
+      <c r="H494" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A495" s="3">
+        <v>130</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C495" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D495" s="2">
+        <v>34.366211999999997</v>
+      </c>
+      <c r="E495" s="2">
+        <v>-118.556828</v>
+      </c>
+      <c r="F495" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G495">
+        <v>70</v>
+      </c>
+      <c r="H495" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A496" s="3">
+        <v>131</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C496" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D496" s="2">
+        <v>34.349165999999997</v>
+      </c>
+      <c r="E496" s="2">
+        <v>-118.54016900000001</v>
+      </c>
+      <c r="F496" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G496">
+        <v>68</v>
+      </c>
+      <c r="H496" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A497" s="3">
+        <v>132</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H497" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A498" s="3">
+        <v>131</v>
+      </c>
+      <c r="B498" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C498" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D498" s="2">
+        <v>34.349448000000002</v>
+      </c>
+      <c r="E498" s="2">
+        <v>-118.53963299999999</v>
+      </c>
+      <c r="F498" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G498">
+        <v>69</v>
+      </c>
+      <c r="H498" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A499" s="3">
+        <v>132</v>
+      </c>
+      <c r="B499" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C499" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H499" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A500" s="3">
+        <v>133</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D500" s="2">
+        <v>34.322656000000002</v>
+      </c>
+      <c r="E500" s="2">
+        <v>-118.499685</v>
+      </c>
+      <c r="F500" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G500">
+        <v>71</v>
+      </c>
+      <c r="H500" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A501" s="3">
+        <v>133</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C501" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D501" s="2">
+        <v>34.322941999999998</v>
+      </c>
+      <c r="E501" s="2">
+        <v>-118.499216</v>
+      </c>
+      <c r="F501" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G501">
+        <v>68</v>
+      </c>
+      <c r="H501" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A502" s="3">
+        <v>134</v>
+      </c>
+      <c r="B502" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C502" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D502" s="2">
+        <v>34.313791000000002</v>
+      </c>
+      <c r="E502" s="2">
+        <v>-118.48889</v>
+      </c>
+      <c r="F502" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G502">
+        <v>63</v>
+      </c>
+      <c r="H502" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A503" s="3">
+        <v>134</v>
+      </c>
+      <c r="B503" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C503" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D503" s="2">
+        <v>34.313867999999999</v>
+      </c>
+      <c r="E503" s="2">
+        <v>-118.488527</v>
+      </c>
+      <c r="F503" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G503">
+        <v>70</v>
+      </c>
+      <c r="H503" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A504" s="3">
+        <v>135</v>
+      </c>
+      <c r="B504" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C504" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D504" s="2">
+        <v>34.302182999999999</v>
+      </c>
+      <c r="E504" s="2">
+        <v>-118.47882799999999</v>
+      </c>
+      <c r="F504" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G504">
+        <v>71</v>
+      </c>
+      <c r="H504" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A505" s="3">
+        <v>135</v>
+      </c>
+      <c r="B505" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C505" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D505" s="2">
+        <v>34.302335999999997</v>
+      </c>
+      <c r="E505" s="2">
+        <v>-118.47851</v>
+      </c>
+      <c r="F505" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G505">
+        <v>69</v>
+      </c>
+      <c r="H505" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A506" s="3">
+        <v>144</v>
+      </c>
+      <c r="B506" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C506" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D506" s="2">
+        <v>34.285404</v>
+      </c>
+      <c r="E506" s="2">
+        <v>-118.46048500000001</v>
+      </c>
+      <c r="F506" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="G506">
+        <v>71</v>
+      </c>
+      <c r="H506" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A507" s="3">
+        <v>144</v>
+      </c>
+      <c r="B507" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C507" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D507" s="2">
+        <v>34.285578000000001</v>
+      </c>
+      <c r="E507" s="2">
+        <v>-118.460261</v>
+      </c>
+      <c r="F507" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="G507">
+        <v>69</v>
+      </c>
+      <c r="H507" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A508" s="3">
+        <v>142</v>
+      </c>
+      <c r="B508" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C508" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D508" s="2">
+        <v>34.267550999999997</v>
+      </c>
+      <c r="E508" s="2">
+        <v>-118.44453300000001</v>
+      </c>
+      <c r="F508" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G508">
+        <v>73</v>
+      </c>
+      <c r="H508" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A509" s="3">
+        <v>142</v>
+      </c>
+      <c r="B509" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C509" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D509" s="2">
+        <v>34.267578999999998</v>
+      </c>
+      <c r="E509" s="2">
+        <v>-118.44413299999999</v>
+      </c>
+      <c r="F509" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G509">
+        <v>72</v>
+      </c>
+      <c r="H509" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A510" s="3">
+        <v>235</v>
+      </c>
+      <c r="B510" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C510" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D510" s="2">
+        <v>34.252446999999997</v>
+      </c>
+      <c r="E510" s="2">
+        <v>-118.43091099999999</v>
+      </c>
+      <c r="F510" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G510">
+        <v>70</v>
+      </c>
+      <c r="H510" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A511" s="3">
+        <v>235</v>
+      </c>
+      <c r="B511" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C511" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D511" s="2">
+        <v>34.248691999999998</v>
+      </c>
+      <c r="E511" s="2">
+        <v>-118.426293</v>
+      </c>
+      <c r="F511" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="G511">
+        <v>69</v>
+      </c>
+      <c r="H511" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A512" s="3">
+        <v>236</v>
+      </c>
+      <c r="B512" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C512" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D512" s="2"/>
+      <c r="E512" s="2"/>
+      <c r="F512" s="1"/>
+      <c r="H512" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A513" s="3">
+        <v>236</v>
+      </c>
+      <c r="B513" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C513" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D513" s="2">
+        <v>34.239215000000002</v>
+      </c>
+      <c r="E513" s="2">
+        <v>-118.416954</v>
+      </c>
+      <c r="F513" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G513">
+        <v>71</v>
+      </c>
+      <c r="H513" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A514" s="3">
+        <v>237</v>
+      </c>
+      <c r="B514" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C514" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D514" s="2">
+        <v>34.231746999999999</v>
+      </c>
+      <c r="E514" s="2">
+        <v>-118.40582999999999</v>
+      </c>
+      <c r="F514" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G514">
+        <v>70</v>
+      </c>
+      <c r="H514" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A515" s="3">
+        <v>237</v>
+      </c>
+      <c r="B515" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C515" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D515" s="2">
+        <v>34.231436000000002</v>
+      </c>
+      <c r="E515" s="2">
+        <v>-118.402399</v>
+      </c>
+      <c r="F515" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G515">
+        <v>70</v>
+      </c>
+      <c r="H515" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A516" s="3">
+        <v>238</v>
+      </c>
+      <c r="B516" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C516" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D516" s="2">
+        <v>34.226629000000003</v>
+      </c>
+      <c r="E516" s="2">
+        <v>-118.37799800000001</v>
+      </c>
+      <c r="F516" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G516">
+        <v>68</v>
+      </c>
+      <c r="H516" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A517" s="3">
+        <v>238</v>
+      </c>
+      <c r="B517" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C517" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D517" s="2">
+        <v>34.226914999999998</v>
+      </c>
+      <c r="E517" s="2">
+        <v>-118.37790800000001</v>
+      </c>
+      <c r="F517" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G517">
+        <v>68</v>
+      </c>
+      <c r="H517" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A518" s="3">
+        <v>239</v>
+      </c>
+      <c r="B518" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C518" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H518" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A519" s="3">
+        <v>239</v>
+      </c>
+      <c r="B519" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C519" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D519" s="2">
+        <v>34.221127000000003</v>
+      </c>
+      <c r="E519" s="2">
+        <v>-118.35919800000001</v>
+      </c>
+      <c r="F519" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G519">
+        <v>70</v>
+      </c>
+      <c r="H519" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A520" s="3">
+        <v>240</v>
+      </c>
+      <c r="B520" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C520" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D520" s="2">
+        <v>34.203280999999997</v>
+      </c>
+      <c r="E520" s="2">
+        <v>-118.341182</v>
+      </c>
+      <c r="F520" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G520">
+        <v>73</v>
+      </c>
+      <c r="H520" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A521" s="3">
+        <v>240</v>
+      </c>
+      <c r="B521" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C521" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D521" s="2">
+        <v>34.203507000000002</v>
+      </c>
+      <c r="E521" s="2">
+        <v>-118.340761</v>
+      </c>
+      <c r="F521" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G521">
+        <v>70</v>
+      </c>
+      <c r="H521" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A522" s="3">
+        <v>241</v>
+      </c>
+      <c r="B522" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C522" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D522" s="2">
+        <v>34.181851000000002</v>
+      </c>
+      <c r="E522" s="2">
+        <v>-118.31492900000001</v>
+      </c>
+      <c r="F522" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="G522">
+        <v>70</v>
+      </c>
+      <c r="H522" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A523" s="3">
+        <v>241</v>
+      </c>
+      <c r="B523" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C523" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D523" s="2">
+        <v>34.181786000000002</v>
+      </c>
+      <c r="E523" s="2">
+        <v>-118.314375</v>
+      </c>
+      <c r="F523" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="G523">
+        <v>71</v>
+      </c>
+      <c r="H523" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A524" s="3">
+        <v>242</v>
+      </c>
+      <c r="B524" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C524" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D524" s="2">
+        <v>34.173495000000003</v>
+      </c>
+      <c r="E524" s="2">
+        <v>-118.30665399999999</v>
+      </c>
+      <c r="F524" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G524">
+        <v>69</v>
+      </c>
+      <c r="H524" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A525" s="3">
+        <v>242</v>
+      </c>
+      <c r="B525" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C525" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D525" s="2">
+        <v>34.173378</v>
+      </c>
+      <c r="E525" s="2">
+        <v>-118.306214</v>
+      </c>
+      <c r="F525" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="G525">
+        <v>65</v>
+      </c>
+      <c r="H525" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A526" s="3">
+        <v>243</v>
+      </c>
+      <c r="B526" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C526" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D526" s="2">
+        <v>34.158312000000002</v>
+      </c>
+      <c r="E526" s="2">
+        <v>-118.29170000000001</v>
+      </c>
+      <c r="F526" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G526">
+        <v>71</v>
+      </c>
+      <c r="H526" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A527" s="3">
+        <v>243</v>
+      </c>
+      <c r="B527" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C527" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D527" s="2">
+        <v>34.158107000000001</v>
+      </c>
+      <c r="E527" s="2">
+        <v>-118.291191</v>
+      </c>
+      <c r="F527" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G527">
+        <v>66</v>
+      </c>
+      <c r="H527" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A528" s="3">
+        <v>262</v>
+      </c>
+      <c r="B528" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C528" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D528" s="2">
+        <v>34.147053</v>
+      </c>
+      <c r="E528" s="2">
+        <v>-118.27934500000001</v>
+      </c>
+      <c r="F528" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G528">
+        <v>69</v>
+      </c>
+      <c r="H528" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A529" s="3">
+        <v>262</v>
+      </c>
+      <c r="B529" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C529" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D529" s="2">
+        <v>34.147038000000002</v>
+      </c>
+      <c r="E529" s="2">
+        <v>-118.278925</v>
+      </c>
+      <c r="F529" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="G529">
+        <v>66</v>
+      </c>
+      <c r="H529" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A530" s="3">
+        <v>263</v>
+      </c>
+      <c r="B530" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C530" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D530" s="2">
+        <v>34.128570000000003</v>
+      </c>
+      <c r="E530" s="2">
+        <v>-118.274084</v>
+      </c>
+      <c r="F530" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G530">
+        <v>69</v>
+      </c>
+      <c r="H530" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A531" s="3">
+        <v>263</v>
+      </c>
+      <c r="B531" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C531" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D531" s="2">
+        <v>34.128279999999997</v>
+      </c>
+      <c r="E531" s="2">
+        <v>-118.273579</v>
+      </c>
+      <c r="F531" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G531">
+        <v>68</v>
+      </c>
+      <c r="H531" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A532" s="3">
+        <v>264</v>
+      </c>
+      <c r="B532" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C532" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D532" s="2">
+        <v>34.109602000000002</v>
+      </c>
+      <c r="E532" s="2">
+        <v>-118.26189599999999</v>
+      </c>
+      <c r="F532" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G532">
+        <v>64</v>
+      </c>
+      <c r="H532" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A533" s="3">
+        <v>264</v>
+      </c>
+      <c r="B533" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C533" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D533" s="2">
+        <v>34.109884999999998</v>
+      </c>
+      <c r="E533" s="2">
+        <v>-118.26170399999999</v>
+      </c>
+      <c r="F533" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="G533">
+        <v>66</v>
+      </c>
+      <c r="H533" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A534" s="3">
+        <v>265</v>
+      </c>
+      <c r="B534" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C534" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D534" s="2">
+        <v>34.097011999999999</v>
+      </c>
+      <c r="E534" s="2">
+        <v>-118.24552300000001</v>
+      </c>
+      <c r="F534" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G534">
+        <v>64</v>
+      </c>
+      <c r="H534" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A535" s="3">
+        <v>265</v>
+      </c>
+      <c r="B535" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C535" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D535" s="2">
+        <v>34.097099</v>
+      </c>
+      <c r="E535" s="2">
+        <v>-118.24516</v>
+      </c>
+      <c r="F535" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="G535">
+        <v>65</v>
+      </c>
+      <c r="H535" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A536" s="3">
+        <v>266</v>
+      </c>
+      <c r="B536" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C536" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D536" s="2">
+        <v>34.085574000000001</v>
+      </c>
+      <c r="E536" s="2">
+        <v>-118.23198499999999</v>
+      </c>
+      <c r="F536" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="G536">
+        <v>65</v>
+      </c>
+      <c r="H536" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A537" s="3">
+        <v>266</v>
+      </c>
+      <c r="B537" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C537" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D537" s="2">
+        <v>34.085670999999998</v>
+      </c>
+      <c r="E537" s="2">
+        <v>-118.231697</v>
+      </c>
+      <c r="F537" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G537">
+        <v>68</v>
+      </c>
+      <c r="H537" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A538" s="3">
+        <v>267</v>
+      </c>
+      <c r="B538" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C538" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D538" s="2">
+        <v>34.070438000000003</v>
+      </c>
+      <c r="E538" s="2">
+        <v>-118.21813899999999</v>
+      </c>
+      <c r="F538" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G538">
+        <v>62</v>
+      </c>
+      <c r="H538" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A539" s="3">
+        <v>267</v>
+      </c>
+      <c r="B539" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C539" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D539" s="2">
+        <v>34.070492000000002</v>
+      </c>
+      <c r="E539" s="2">
+        <v>-118.21789099999999</v>
+      </c>
+      <c r="F539" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="G539">
+        <v>65</v>
+      </c>
+      <c r="H539" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A540" s="3">
+        <v>268</v>
+      </c>
+      <c r="B540" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C540" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D540" s="2">
+        <v>34.055211999999997</v>
+      </c>
+      <c r="E540" s="2">
+        <v>-118.189082</v>
+      </c>
+      <c r="F540" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G540">
+        <v>69</v>
+      </c>
+      <c r="H540" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A541" s="3">
+        <v>268</v>
+      </c>
+      <c r="B541" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C541" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D541" s="2">
+        <v>34.055484999999997</v>
+      </c>
+      <c r="E541" s="2">
+        <v>-118.189044</v>
+      </c>
+      <c r="F541" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G541">
+        <v>71</v>
+      </c>
+      <c r="H541" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A542" s="3">
+        <v>269</v>
+      </c>
+      <c r="B542" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C542" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D542" s="2">
+        <v>34.061225999999998</v>
+      </c>
+      <c r="E542" s="2">
+        <v>-118.16700899999999</v>
+      </c>
+      <c r="F542" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="G542">
+        <v>68</v>
+      </c>
+      <c r="H542" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A543" s="3">
+        <v>269</v>
+      </c>
+      <c r="B543" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C543" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D543" s="2">
+        <v>34.061452000000003</v>
+      </c>
+      <c r="E543" s="2">
+        <v>-118.166883</v>
+      </c>
+      <c r="F543" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="G543">
+        <v>66</v>
+      </c>
+      <c r="H543" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A544" s="3">
+        <v>270</v>
+      </c>
+      <c r="B544" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C544" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D544" s="2">
+        <v>34.070551000000002</v>
+      </c>
+      <c r="E544" s="2">
+        <v>-118.14669499999999</v>
+      </c>
+      <c r="F544" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G544">
+        <v>65</v>
+      </c>
+      <c r="H544" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A545" s="3">
+        <v>270</v>
+      </c>
+      <c r="B545" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C545" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D545" s="2">
+        <v>34.071012000000003</v>
+      </c>
+      <c r="E545" s="2">
+        <v>-118.14661700000001</v>
+      </c>
+      <c r="F545" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G545">
+        <v>64</v>
+      </c>
+      <c r="H545" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A546" s="3">
+        <v>289</v>
+      </c>
+      <c r="B546" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C546" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D546" s="2">
+        <v>34.071413</v>
+      </c>
+      <c r="E546" s="2">
+        <v>-118.129822</v>
+      </c>
+      <c r="F546" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G546">
+        <v>68</v>
+      </c>
+      <c r="H546" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A547" s="3">
+        <v>289</v>
+      </c>
+      <c r="B547" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C547" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D547" s="2">
+        <v>34.0717</v>
+      </c>
+      <c r="E547" s="2">
+        <v>-118.129846</v>
+      </c>
+      <c r="F547" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G547">
+        <v>66</v>
+      </c>
+      <c r="H547" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A548" s="3">
+        <v>290</v>
+      </c>
+      <c r="B548" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C548" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D548" s="2">
+        <v>34.071809000000002</v>
+      </c>
+      <c r="E548" s="2">
+        <v>-118.09716400000001</v>
+      </c>
+      <c r="F548" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="G548">
+        <v>68</v>
+      </c>
+      <c r="H548" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A549" s="3">
+        <v>290</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C549" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D549" s="2">
+        <v>34.072152000000003</v>
+      </c>
+      <c r="E549" s="2">
+        <v>-118.097058</v>
+      </c>
+      <c r="F549" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G549">
+        <v>67</v>
+      </c>
+      <c r="H549" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A550" s="3">
+        <v>291</v>
+      </c>
+      <c r="B550" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C550" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D550" s="2">
+        <v>34.072031000000003</v>
+      </c>
+      <c r="E550" s="2">
+        <v>-118.077432</v>
+      </c>
+      <c r="F550" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G550">
+        <v>69</v>
+      </c>
+      <c r="H550" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A551" s="3">
+        <v>292</v>
+      </c>
+      <c r="B551" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C551" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D551" s="2"/>
+      <c r="E551" s="2"/>
+      <c r="F551" s="1"/>
+      <c r="H551" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A552" s="3">
+        <v>291</v>
+      </c>
+      <c r="B552" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C552" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D552" s="2">
+        <v>34.072360000000003</v>
+      </c>
+      <c r="E552" s="2">
+        <v>-118.07747500000001</v>
+      </c>
+      <c r="F552" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="G552">
+        <v>66</v>
+      </c>
+      <c r="H552" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A553" s="3">
+        <v>292</v>
+      </c>
+      <c r="B553" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C553" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D553" s="2">
+        <v>34.072535999999999</v>
+      </c>
+      <c r="E553" s="2">
+        <v>-118.066822</v>
+      </c>
+      <c r="F553" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="G553">
+        <v>68</v>
+      </c>
+      <c r="H553" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A554" s="3">
+        <v>293</v>
+      </c>
+      <c r="B554" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C554" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D554" s="2">
+        <v>34.067799999999998</v>
+      </c>
+      <c r="E554" s="2">
+        <v>-118.032729</v>
+      </c>
+      <c r="F554" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G554">
+        <v>68</v>
+      </c>
+      <c r="H554" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A555" s="3">
+        <v>293</v>
+      </c>
+      <c r="B555" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C555" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D555" s="2">
+        <v>34.068095999999997</v>
+      </c>
+      <c r="E555" s="2">
+        <v>-118.03281200000001</v>
+      </c>
+      <c r="F555" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="G555">
+        <v>70</v>
+      </c>
+      <c r="H555" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A556" s="3">
+        <v>294</v>
+      </c>
+      <c r="B556" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C556" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D556" s="2">
+        <v>34.064205000000001</v>
+      </c>
+      <c r="E556" s="2">
+        <v>-118.010711</v>
+      </c>
+      <c r="F556" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G556">
+        <v>68</v>
+      </c>
+      <c r="H556" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A557" s="3">
+        <v>294</v>
+      </c>
+      <c r="B557" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C557" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D557" s="2">
+        <v>34.064452000000003</v>
+      </c>
+      <c r="E557" s="2">
+        <v>-118.01045999999999</v>
+      </c>
+      <c r="F557" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="G557">
+        <v>68</v>
+      </c>
+      <c r="H557" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A558" s="3">
+        <v>295</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C558" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D558" s="2">
+        <v>34.066215999999997</v>
+      </c>
+      <c r="E558" s="2">
+        <v>-117.990792</v>
+      </c>
+      <c r="F558" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="G558">
+        <v>65</v>
+      </c>
+      <c r="H558" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A559" s="3">
+        <v>295</v>
+      </c>
+      <c r="B559" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C559" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D559" s="2">
+        <v>34.066504000000002</v>
+      </c>
+      <c r="E559" s="2">
+        <v>-117.990825</v>
+      </c>
+      <c r="F559" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G559">
+        <v>66</v>
+      </c>
+      <c r="H559" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A560" s="3">
+        <v>296</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C560" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D560" s="2">
+        <v>34.070264000000002</v>
+      </c>
+      <c r="E560" s="2">
+        <v>-117.960005</v>
+      </c>
+      <c r="F560" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G560">
+        <v>62</v>
+      </c>
+      <c r="H560" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A561" s="3">
+        <v>296</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C561" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D561" s="2">
+        <v>34.070528000000003</v>
+      </c>
+      <c r="E561" s="2">
+        <v>-117.95999399999999</v>
+      </c>
+      <c r="F561" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G561">
+        <v>68</v>
+      </c>
+      <c r="H561" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A562" s="3">
+        <v>297</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C562" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D562" s="2">
+        <v>34.072271000000001</v>
+      </c>
+      <c r="E562" s="2">
+        <v>-117.938574</v>
+      </c>
+      <c r="F562" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G562">
+        <v>71</v>
+      </c>
+      <c r="H562" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A563" s="3">
+        <v>297</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C563" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D563" s="2">
+        <v>34.072572999999998</v>
+      </c>
+      <c r="E563" s="2">
+        <v>-117.938512</v>
+      </c>
+      <c r="F563" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G563">
+        <v>70</v>
+      </c>
+      <c r="H563" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A564" s="3">
+        <v>312</v>
+      </c>
+      <c r="B564" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C564" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D564" s="2">
+        <v>34.072066999999997</v>
+      </c>
+      <c r="E564" s="2">
+        <v>-117.915335</v>
+      </c>
+      <c r="F564" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G564">
+        <v>70</v>
+      </c>
+      <c r="H564" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A565" s="3">
+        <v>312</v>
+      </c>
+      <c r="B565" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C565" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D565" s="2">
+        <v>34.072378999999998</v>
+      </c>
+      <c r="E565" s="2">
+        <v>-117.915308</v>
+      </c>
+      <c r="F565" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G565">
+        <v>71</v>
+      </c>
+      <c r="H565" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A566" s="3">
+        <v>311</v>
+      </c>
+      <c r="B566" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C566" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D566" s="2">
+        <v>34.071919000000001</v>
+      </c>
+      <c r="E566" s="2">
+        <v>-117.899631</v>
+      </c>
+      <c r="F566" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G566">
+        <v>70</v>
+      </c>
+      <c r="H566" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A567" s="3">
+        <v>311</v>
+      </c>
+      <c r="B567" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C567" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D567" s="2">
+        <v>34.072226999999998</v>
+      </c>
+      <c r="E567" s="2">
+        <v>-117.899615</v>
+      </c>
+      <c r="F567" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G567">
+        <v>70</v>
+      </c>
+      <c r="H567" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/led_locations.xlsx
+++ b/led_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapti\Documents\traffic-pcb-sb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6E55C0-706A-47F0-8EBB-C26D7C352AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDFEB85-CD9B-45AC-8127-EC9F5B474752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="554">
   <si>
     <t>LED Number</t>
   </si>
@@ -1462,6 +1462,231 @@
   </si>
   <si>
     <t>C6wqXBg6pQEYHfjFAA4BCA==</t>
+  </si>
+  <si>
+    <t>I-405</t>
+  </si>
+  <si>
+    <t>C6vAyhhe3wEQFv/1+1sBAA==</t>
+  </si>
+  <si>
+    <t>C6vAqhhZCQEAMABXCfIBEA==</t>
+  </si>
+  <si>
+    <t>C6vAxBhcHAEQLP+r9soBAA==</t>
+  </si>
+  <si>
+    <t>C6vAlhhVNwEQJf+t+EMBAA==</t>
+  </si>
+  <si>
+    <t>C6vAmhhSwgEAJgASB9sBEA==</t>
+  </si>
+  <si>
+    <t>C6vAbxhRnAEQGQAf+toBHg==</t>
+  </si>
+  <si>
+    <t>C6vAchhP/wEfHABVBe0BEA==</t>
+  </si>
+  <si>
+    <t>C6vAfhhPNgEOIgIH+XMBAg==</t>
+  </si>
+  <si>
+    <t>C6vBnhhNWAEfHv18BbEBEA==</t>
+  </si>
+  <si>
+    <t>C6vBDRhIGQERB/+x/pEBAA==</t>
+  </si>
+  <si>
+    <t>C6vAUhhEpgECKgIwCG4BEQ==</t>
+  </si>
+  <si>
+    <t>C6vA6BhHbgEQN/vi9V4BAA==</t>
+  </si>
+  <si>
+    <t>C6u/CRhCYgEAGgLCBNsBEg==</t>
+  </si>
+  <si>
+    <t>C6u+/RhCeQEQHQGb+k4BERAAxPzHAR8=</t>
+  </si>
+  <si>
+    <t>C6u/6Rg/JgEdGv50BQkBDQ==</t>
+  </si>
+  <si>
+    <t>C6vAWhg8rwEOKwYF+H8BHQ==</t>
+  </si>
+  <si>
+    <t>C6vAsxg8IwEdIP5OBnYBDQ==</t>
+  </si>
+  <si>
+    <t>C6vD6xg4XAEcIvsZBcABDQ==</t>
+  </si>
+  <si>
+    <t>C6vF9Rg1awENFQLH/DUBHA==</t>
+  </si>
+  <si>
+    <t>C6vHVxgzoAEbDv5LApMBDQ==</t>
+  </si>
+  <si>
+    <t>C6vI4xgx1AENIgS3+gsBHQ==</t>
+  </si>
+  <si>
+    <t>C6vKkRgvygEcI/szBgkBDQ==</t>
+  </si>
+  <si>
+    <t>C6vLFRgvDgENEAJG/RsBHQ==</t>
+  </si>
+  <si>
+    <t>C6vQAxgpZAEaEvzsAtABHTL5JgiyAQ0=</t>
+  </si>
+  <si>
+    <t>C6vMphgtEQENEQJ2/OoBDBACM/06AR0=</t>
+  </si>
+  <si>
+    <t>C6vQYBgpLQEKFQR0/bUBGw==</t>
+  </si>
+  <si>
+    <t>C6vTNBgnjwEdG/qUA0YBCg==</t>
+  </si>
+  <si>
+    <t>C6vTYRgm7AEOIACg+U0BECYAAPgSAQA=</t>
+  </si>
+  <si>
+    <t>C6vTiBglAAEfGv9KBXwBDg==</t>
+  </si>
+  <si>
+    <t>C6vTkhgfMgEAJQBOB9ABEA==</t>
+  </si>
+  <si>
+    <t>C6vTqxggGwEQGv80+owBAA==</t>
+  </si>
+  <si>
+    <t>C6vTVhgcPAEAHgCCBloBEA==</t>
+  </si>
+  <si>
+    <t>C6vTWhga/wEOGgST/EsBGw==</t>
+  </si>
+  <si>
+    <t>C6vUYBgaGwEbGf3FBJIBEA==</t>
+  </si>
+  <si>
+    <t>C6vVfBgZRQELDQKg/iABGw==</t>
+  </si>
+  <si>
+    <t>C6vWdhgYnAEbF/uFAzUBCw==</t>
+  </si>
+  <si>
+    <t>C6vYyxgV3wEMGAVf/c8BGQ==</t>
+  </si>
+  <si>
+    <t>C6vbQhgU5gEZIvl3A/YBDQ==</t>
+  </si>
+  <si>
+    <t>C6vckhgUdwEJMAut/rQBGg==</t>
+  </si>
+  <si>
+    <t>C6vefhgUBAEYHfkPAeQBCQ==</t>
+  </si>
+  <si>
+    <t>C6vhSRgUAwEYC/0k//8BCA==</t>
+  </si>
+  <si>
+    <t>C6vkPhgSaAELIAWY+0IBHA==</t>
+  </si>
+  <si>
+    <t>C6vmZRgQtgEcLffhBkwBCg==</t>
+  </si>
+  <si>
+    <t>C6vm2RgQMgEMGAPK/CEBHA==</t>
+  </si>
+  <si>
+    <t>C6vq3xgN1AEYIflaAysBDA==</t>
+  </si>
+  <si>
+    <t>C6vrlxgNywEIGAX2/8UBGA==</t>
+  </si>
+  <si>
+    <t>C6vtJxgNxQEYE/sbAB8BCA==</t>
+  </si>
+  <si>
+    <t>C6vuXhgNsAEICwLgACQBFg==</t>
+  </si>
+  <si>
+    <t>C6vx6xgNsAEaGvmsABIBCA==</t>
+  </si>
+  <si>
+    <t>C6vytBgNQAEKHAW8/NUBCQoCfP/UARg=</t>
+  </si>
+  <si>
+    <t>C6vzkxgM1wEbEPx0AdABCg==</t>
+  </si>
+  <si>
+    <t>C6v2iBgLsQEIBgGQAAABCBcFdv5jARs=</t>
+  </si>
+  <si>
+    <t>C6v8IhgKRwEYLPXFAxwBCA==</t>
+  </si>
+  <si>
+    <t>C6v5zhgK8QEKDgMp/sQBCBkFx/5nARg=</t>
+  </si>
+  <si>
+    <t>C6v9+RgJnwEIGQY//+gBGA==</t>
+  </si>
+  <si>
+    <t>C6wBNhgJmwEYFfrAAA4BCA==</t>
+  </si>
+  <si>
+    <t>C6wCXxgJEgELFAOv/UABGw==</t>
+  </si>
+  <si>
+    <t>C6wDERgImQEbE/wEAioBCA==</t>
+  </si>
+  <si>
+    <t>C6wEFxgHygELFQPi/REBHA==</t>
+  </si>
+  <si>
+    <t>C6wF2RgGhQEcB/6PARYBCw==</t>
+  </si>
+  <si>
+    <t>C6wHzxgEawEIEAQTAAABFw==</t>
+  </si>
+  <si>
+    <t>C6wI9RgEeQEYHPppAi8BDg==</t>
+  </si>
+  <si>
+    <t>C6wJtRgEawEIIgiZ//ABGA==</t>
+  </si>
+  <si>
+    <t>C6wOKxgEfAEXLfTR//kBCA==</t>
+  </si>
+  <si>
+    <t>C6wPyhgEFAEMRgxc9bgBGw==</t>
+  </si>
+  <si>
+    <t>C6wSRxgCEQEcFvwXA1IBDA==</t>
+  </si>
+  <si>
+    <t>C6wVHxf/sQEbIvnnBRgBCw==</t>
+  </si>
+  <si>
+    <t>C6wWgRf+fAELJQbe+u8BGw==</t>
+  </si>
+  <si>
+    <t>C6wctxf53wEbGPupA3cBG0H0DAkHAQw=</t>
+  </si>
+  <si>
+    <t>C6wcKxf6QgEMDAIj/jcBHA==</t>
+  </si>
+  <si>
+    <t>C6wfhxf3dQELBwGY/xwBGg==</t>
+  </si>
+  <si>
+    <t>C6whQRf2rQEaNPZBBtsBDA==</t>
+  </si>
+  <si>
+    <t>C6wiqxf2CwEKIwfq/RIBGA==</t>
+  </si>
+  <si>
+    <t>C6wktxf1PwEaIfiTAxIBCg==</t>
   </si>
 </sst>
 </file>
@@ -1808,10 +2033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H567"/>
+  <dimension ref="A1:H653"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A520" workbookViewId="0">
-      <selection activeCell="E567" sqref="E567"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="D659" sqref="D659"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15336,6 +15561,2161 @@
         <v>13</v>
       </c>
     </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A568" s="3">
+        <v>172</v>
+      </c>
+      <c r="B568" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C568" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D568" s="2">
+        <v>34.262909000000001</v>
+      </c>
+      <c r="E568" s="2">
+        <v>-118.472341</v>
+      </c>
+      <c r="F568" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G568">
+        <v>73</v>
+      </c>
+      <c r="H568" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A569" s="3">
+        <v>172</v>
+      </c>
+      <c r="B569" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C569" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D569" s="2">
+        <v>34.262917999999999</v>
+      </c>
+      <c r="E569" s="2">
+        <v>-118.472088</v>
+      </c>
+      <c r="F569" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G569">
+        <v>69</v>
+      </c>
+      <c r="H569" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A570" s="3">
+        <v>173</v>
+      </c>
+      <c r="B570" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C570" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D570" s="2">
+        <v>34.254983000000003</v>
+      </c>
+      <c r="E570" s="2">
+        <v>-118.472447</v>
+      </c>
+      <c r="F570" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G570">
+        <v>70</v>
+      </c>
+      <c r="H570" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A571" s="3">
+        <v>173</v>
+      </c>
+      <c r="B571" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C571" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D571" s="2">
+        <v>34.255057999999998</v>
+      </c>
+      <c r="E571" s="2">
+        <v>-118.472138</v>
+      </c>
+      <c r="F571" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G571">
+        <v>91</v>
+      </c>
+      <c r="H571" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A572" s="3">
+        <v>174</v>
+      </c>
+      <c r="B572" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C572" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D572" s="2">
+        <v>34.210430000000002</v>
+      </c>
+      <c r="E572" s="2">
+        <v>-118.473462</v>
+      </c>
+      <c r="F572" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G572">
+        <v>70</v>
+      </c>
+      <c r="H572" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A573" s="3">
+        <v>174</v>
+      </c>
+      <c r="B573" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C573" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D573" s="2">
+        <v>34.210439000000001</v>
+      </c>
+      <c r="E573" s="2">
+        <v>-118.47317099999999</v>
+      </c>
+      <c r="F573" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G573">
+        <v>68</v>
+      </c>
+      <c r="H573" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A574" s="3">
+        <v>175</v>
+      </c>
+      <c r="B574" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C574" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D574" s="2">
+        <v>34.189436999999998</v>
+      </c>
+      <c r="E574" s="2">
+        <v>-118.47436999999999</v>
+      </c>
+      <c r="F574" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G574">
+        <v>69</v>
+      </c>
+      <c r="H574" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A575" s="3">
+        <v>175</v>
+      </c>
+      <c r="B575" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C575" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D575" s="2">
+        <v>34.189442999999997</v>
+      </c>
+      <c r="E575" s="2">
+        <v>-118.474101</v>
+      </c>
+      <c r="F575" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G575">
+        <v>68</v>
+      </c>
+      <c r="H575" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A576" s="3">
+        <v>176</v>
+      </c>
+      <c r="B576" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C576" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D576" s="2">
+        <v>34.177867999999997</v>
+      </c>
+      <c r="E576" s="2">
+        <v>-118.46896</v>
+      </c>
+      <c r="F576" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G576">
+        <v>67</v>
+      </c>
+      <c r="H576" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A577" s="3">
+        <v>176</v>
+      </c>
+      <c r="B577" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C577" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D577" s="2">
+        <v>34.177995000000003</v>
+      </c>
+      <c r="E577" s="2">
+        <v>-118.468665</v>
+      </c>
+      <c r="F577" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="G577">
+        <v>66</v>
+      </c>
+      <c r="H577" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A578" s="3">
+        <v>177</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C578" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D578" s="2">
+        <v>34.144713000000003</v>
+      </c>
+      <c r="E578" s="2">
+        <v>-118.47126799999999</v>
+      </c>
+      <c r="F578" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G578">
+        <v>63</v>
+      </c>
+      <c r="H578" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A579" s="3">
+        <v>177</v>
+      </c>
+      <c r="B579" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C579" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D579" s="2">
+        <v>34.144658999999997</v>
+      </c>
+      <c r="E579" s="2">
+        <v>-118.470907</v>
+      </c>
+      <c r="F579" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G579">
+        <v>67</v>
+      </c>
+      <c r="H579" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A580" s="3">
+        <v>178</v>
+      </c>
+      <c r="B580" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C580" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D580" s="2">
+        <v>34.120631000000003</v>
+      </c>
+      <c r="E580" s="2">
+        <v>-118.48035900000001</v>
+      </c>
+      <c r="F580" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G580">
+        <v>65</v>
+      </c>
+      <c r="H580" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A581" s="3">
+        <v>178</v>
+      </c>
+      <c r="B581" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C581" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D581" s="2">
+        <v>34.120331</v>
+      </c>
+      <c r="E581" s="2">
+        <v>-118.48023000000001</v>
+      </c>
+      <c r="F581" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="G581">
+        <v>66</v>
+      </c>
+      <c r="H581" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A582" s="3">
+        <v>179</v>
+      </c>
+      <c r="B582" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C582" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D582" s="2">
+        <v>34.106898999999999</v>
+      </c>
+      <c r="E582" s="2">
+        <v>-118.47927199999999</v>
+      </c>
+      <c r="F582" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G582">
+        <v>66</v>
+      </c>
+      <c r="H582" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A583" s="3">
+        <v>179</v>
+      </c>
+      <c r="B583" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C583" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D583" s="2">
+        <v>34.106971000000001</v>
+      </c>
+      <c r="E583" s="2">
+        <v>-118.47892</v>
+      </c>
+      <c r="F583" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G583">
+        <v>64</v>
+      </c>
+      <c r="H583" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A584" s="3">
+        <v>180</v>
+      </c>
+      <c r="B584" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C584" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D584" s="2">
+        <v>34.082383999999998</v>
+      </c>
+      <c r="E584" s="2">
+        <v>-118.47431899999999</v>
+      </c>
+      <c r="F584" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G584">
+        <v>69</v>
+      </c>
+      <c r="H584" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A585" s="3">
+        <v>180</v>
+      </c>
+      <c r="B585" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C585" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D585" s="2">
+        <v>34.082475000000002</v>
+      </c>
+      <c r="E585" s="2">
+        <v>-118.473989</v>
+      </c>
+      <c r="F585" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G585">
+        <v>66</v>
+      </c>
+      <c r="H585" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A586" s="3">
+        <v>181</v>
+      </c>
+      <c r="B586" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C586" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D586" s="2">
+        <v>34.070666000000003</v>
+      </c>
+      <c r="E586" s="2">
+        <v>-118.46505500000001</v>
+      </c>
+      <c r="F586" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G586">
+        <v>68</v>
+      </c>
+      <c r="H586" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A587" s="3">
+        <v>181</v>
+      </c>
+      <c r="B587" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C587" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D587" s="2">
+        <v>34.070743</v>
+      </c>
+      <c r="E587" s="2">
+        <v>-118.464738</v>
+      </c>
+      <c r="F587" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G587">
+        <v>66</v>
+      </c>
+      <c r="H587" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A588" s="3">
+        <v>182</v>
+      </c>
+      <c r="B588" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C588" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D588" s="2">
+        <v>34.037219999999998</v>
+      </c>
+      <c r="E588" s="2">
+        <v>-118.43898799999999</v>
+      </c>
+      <c r="F588" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G588">
+        <v>66</v>
+      </c>
+      <c r="H588" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A589" s="3">
+        <v>182</v>
+      </c>
+      <c r="B589" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C589" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D589" s="2">
+        <v>34.037343999999997</v>
+      </c>
+      <c r="E589" s="2">
+        <v>-118.438692</v>
+      </c>
+      <c r="F589" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G589">
+        <v>61</v>
+      </c>
+      <c r="H589" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A590" s="3">
+        <v>183</v>
+      </c>
+      <c r="B590" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C590" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D590" s="2">
+        <v>34.037146999999997</v>
+      </c>
+      <c r="E590" s="2">
+        <v>-118.438925</v>
+      </c>
+      <c r="F590" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G590">
+        <v>66</v>
+      </c>
+      <c r="H590" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A591" s="3">
+        <v>183</v>
+      </c>
+      <c r="B591" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C591" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D591" s="2">
+        <v>34.037345000000002</v>
+      </c>
+      <c r="E591" s="2">
+        <v>-118.438667</v>
+      </c>
+      <c r="F591" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G591">
+        <v>60</v>
+      </c>
+      <c r="H591" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A592" s="3">
+        <v>184</v>
+      </c>
+      <c r="B592" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C592" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D592" s="2">
+        <v>34.017290000000003</v>
+      </c>
+      <c r="E592" s="2">
+        <v>-118.42272699999999</v>
+      </c>
+      <c r="F592" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G592">
+        <v>68</v>
+      </c>
+      <c r="H592" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A593" s="3">
+        <v>184</v>
+      </c>
+      <c r="B593" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C593" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D593" s="2">
+        <v>34.017431000000002</v>
+      </c>
+      <c r="E593" s="2">
+        <v>-118.422386</v>
+      </c>
+      <c r="F593" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="G593">
+        <v>73</v>
+      </c>
+      <c r="H593" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A594" s="3">
+        <v>185</v>
+      </c>
+      <c r="B594" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C594" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D594" s="2">
+        <v>34.003870999999997</v>
+      </c>
+      <c r="E594" s="2">
+        <v>-118.41211199999999</v>
+      </c>
+      <c r="F594" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G594">
+        <v>69</v>
+      </c>
+      <c r="H594" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A595" s="3">
+        <v>185</v>
+      </c>
+      <c r="B595" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C595" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D595" s="2">
+        <v>34.003984000000003</v>
+      </c>
+      <c r="E595" s="2">
+        <v>-118.411766</v>
+      </c>
+      <c r="F595" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="G595">
+        <v>67</v>
+      </c>
+      <c r="H595" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A596" s="3">
+        <v>186</v>
+      </c>
+      <c r="B596" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C596" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H596" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A597" s="3">
+        <v>186</v>
+      </c>
+      <c r="B597" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C597" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D597" s="2">
+        <v>33.986708999999998</v>
+      </c>
+      <c r="E597" s="2">
+        <v>-118.398472</v>
+      </c>
+      <c r="F597" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="G597">
+        <v>66</v>
+      </c>
+      <c r="H597" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A598" s="3">
+        <v>187</v>
+      </c>
+      <c r="B598" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C598" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D598" s="2">
+        <v>33.971063999999998</v>
+      </c>
+      <c r="E598" s="2">
+        <v>-118.37672000000001</v>
+      </c>
+      <c r="F598" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="G598">
+        <v>68</v>
+      </c>
+      <c r="H598" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A599" s="3">
+        <v>187</v>
+      </c>
+      <c r="B599" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C599" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D599" s="2">
+        <v>33.971232999999998</v>
+      </c>
+      <c r="E599" s="2">
+        <v>-118.3766</v>
+      </c>
+      <c r="F599" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G599">
+        <v>68</v>
+      </c>
+      <c r="H599" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A600" s="3">
+        <v>188</v>
+      </c>
+      <c r="B600" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C600" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D600" s="2">
+        <v>33.960197000000001</v>
+      </c>
+      <c r="E600" s="2">
+        <v>-118.369467</v>
+      </c>
+      <c r="F600" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G600">
+        <v>70</v>
+      </c>
+      <c r="H600" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A601" s="3">
+        <v>189</v>
+      </c>
+      <c r="B601" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C601" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H601" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A602" s="3">
+        <v>188</v>
+      </c>
+      <c r="B602" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C602" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D602" s="2">
+        <v>33.960214999999998</v>
+      </c>
+      <c r="E602" s="2">
+        <v>-118.369204</v>
+      </c>
+      <c r="F602" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="G602">
+        <v>68</v>
+      </c>
+      <c r="H602" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A603" s="3">
+        <v>189</v>
+      </c>
+      <c r="B603" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C603" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D603" s="2">
+        <v>33.932231999999999</v>
+      </c>
+      <c r="E603" s="2">
+        <v>-118.36828199999999</v>
+      </c>
+      <c r="F603" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G603">
+        <v>70</v>
+      </c>
+      <c r="H603" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A604" s="3">
+        <v>208</v>
+      </c>
+      <c r="B604" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C604" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D604" s="2">
+        <v>33.916699999999999</v>
+      </c>
+      <c r="E604" s="2">
+        <v>-118.370317</v>
+      </c>
+      <c r="F604" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G604">
+        <v>71</v>
+      </c>
+      <c r="H604" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A605" s="3">
+        <v>208</v>
+      </c>
+      <c r="B605" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C605" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D605" s="2">
+        <v>33.916739999999997</v>
+      </c>
+      <c r="E605" s="2">
+        <v>-118.37004</v>
+      </c>
+      <c r="F605" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G605">
+        <v>68</v>
+      </c>
+      <c r="H605" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A606" s="3">
+        <v>209</v>
+      </c>
+      <c r="B606" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C606" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D606" s="2">
+        <v>33.897751</v>
+      </c>
+      <c r="E606" s="2">
+        <v>-118.370071</v>
+      </c>
+      <c r="F606" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G606">
+        <v>69</v>
+      </c>
+      <c r="H606" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A607" s="3">
+        <v>209</v>
+      </c>
+      <c r="B607" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C607" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D607" s="2">
+        <v>33.897773000000001</v>
+      </c>
+      <c r="E607" s="2">
+        <v>-118.369716</v>
+      </c>
+      <c r="F607" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="G607">
+        <v>66</v>
+      </c>
+      <c r="H607" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A608" s="3">
+        <v>210</v>
+      </c>
+      <c r="B608" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C608" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D608" s="2">
+        <v>33.886980999999999</v>
+      </c>
+      <c r="E608" s="2">
+        <v>-118.356054</v>
+      </c>
+      <c r="F608" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G608">
+        <v>70</v>
+      </c>
+      <c r="H608" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A609" s="3">
+        <v>210</v>
+      </c>
+      <c r="B609" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C609" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D609" s="2">
+        <v>33.886986</v>
+      </c>
+      <c r="E609" s="2">
+        <v>-118.35568600000001</v>
+      </c>
+      <c r="F609" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="G609">
+        <v>67</v>
+      </c>
+      <c r="H609" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A610" s="3">
+        <v>211</v>
+      </c>
+      <c r="B610" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C610" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D610" s="2">
+        <v>33.869424000000002</v>
+      </c>
+      <c r="E610" s="2">
+        <v>-118.33974000000001</v>
+      </c>
+      <c r="F610" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G610">
+        <v>68</v>
+      </c>
+      <c r="H610" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A611" s="3">
+        <v>211</v>
+      </c>
+      <c r="B611" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C611" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D611" s="2">
+        <v>33.869563999999997</v>
+      </c>
+      <c r="E611" s="2">
+        <v>-118.339428</v>
+      </c>
+      <c r="F611" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="G611">
+        <v>68</v>
+      </c>
+      <c r="H611" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A612" s="3">
+        <v>212</v>
+      </c>
+      <c r="B612" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C612" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D612" s="2">
+        <v>33.861153000000002</v>
+      </c>
+      <c r="E612" s="2">
+        <v>-118.31546400000001</v>
+      </c>
+      <c r="F612" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="G612">
+        <v>68</v>
+      </c>
+      <c r="H612" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A613" s="3">
+        <v>212</v>
+      </c>
+      <c r="B613" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C613" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D613" s="2">
+        <v>33.861381999999999</v>
+      </c>
+      <c r="E613" s="2">
+        <v>-118.315434</v>
+      </c>
+      <c r="F613" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="G613">
+        <v>67</v>
+      </c>
+      <c r="H613" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A614" s="3">
+        <v>213</v>
+      </c>
+      <c r="B614" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C614" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D614" s="2">
+        <v>33.859724999999997</v>
+      </c>
+      <c r="E614" s="2">
+        <v>-118.298422</v>
+      </c>
+      <c r="F614" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="G614">
+        <v>68</v>
+      </c>
+      <c r="H614" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A615" s="3">
+        <v>213</v>
+      </c>
+      <c r="B615" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C615" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D615" s="2">
+        <v>33.859960999999998</v>
+      </c>
+      <c r="E615" s="2">
+        <v>-118.298424</v>
+      </c>
+      <c r="F615" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="G615">
+        <v>65</v>
+      </c>
+      <c r="H615" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A616" s="3">
+        <v>214</v>
+      </c>
+      <c r="B616" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C616" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D616" s="2">
+        <v>33.850394000000001</v>
+      </c>
+      <c r="E616" s="2">
+        <v>-118.276562</v>
+      </c>
+      <c r="F616" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G616">
+        <v>71</v>
+      </c>
+      <c r="H616" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A617" s="3">
+        <v>214</v>
+      </c>
+      <c r="B617" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C617" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D617" s="2">
+        <v>33.850560000000002</v>
+      </c>
+      <c r="E617" s="2">
+        <v>-118.27631100000001</v>
+      </c>
+      <c r="F617" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G617">
+        <v>68</v>
+      </c>
+      <c r="H617" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A618" s="3">
+        <v>215</v>
+      </c>
+      <c r="B618" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C618" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D618" s="2">
+        <v>33.832734000000002</v>
+      </c>
+      <c r="E618" s="2">
+        <v>-118.257127</v>
+      </c>
+      <c r="F618" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="G618">
+        <v>69</v>
+      </c>
+      <c r="H618" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A619" s="3">
+        <v>215</v>
+      </c>
+      <c r="B619" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C619" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D619" s="2">
+        <v>33.832819999999998</v>
+      </c>
+      <c r="E619" s="2">
+        <v>-118.256873</v>
+      </c>
+      <c r="F619" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="G619">
+        <v>68</v>
+      </c>
+      <c r="H619" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A620" s="3">
+        <v>216</v>
+      </c>
+      <c r="B620" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C620" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D620" s="2">
+        <v>33.825767999999997</v>
+      </c>
+      <c r="E620" s="2">
+        <v>-118.234892</v>
+      </c>
+      <c r="F620" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="G620">
+        <v>70</v>
+      </c>
+      <c r="H620" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A621" s="3">
+        <v>216</v>
+      </c>
+      <c r="B621" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C621" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D621" s="2">
+        <v>33.825977999999999</v>
+      </c>
+      <c r="E621" s="2">
+        <v>-118.234522</v>
+      </c>
+      <c r="F621" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G621">
+        <v>71</v>
+      </c>
+      <c r="H621" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A622" s="3">
+        <v>217</v>
+      </c>
+      <c r="B622" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C622" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D622" s="2">
+        <v>33.825372999999999</v>
+      </c>
+      <c r="E622" s="2">
+        <v>-118.215225</v>
+      </c>
+      <c r="F622" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G622">
+        <v>68</v>
+      </c>
+      <c r="H622" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A623" s="3">
+        <v>217</v>
+      </c>
+      <c r="B623" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C623" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D623" s="2">
+        <v>33.825629999999997</v>
+      </c>
+      <c r="E623" s="2">
+        <v>-118.215041</v>
+      </c>
+      <c r="F623" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="G623">
+        <v>71</v>
+      </c>
+      <c r="H623" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A624" s="3">
+        <v>218</v>
+      </c>
+      <c r="B624" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C624" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D624" s="2">
+        <v>33.822181</v>
+      </c>
+      <c r="E624" s="2">
+        <v>-118.196994</v>
+      </c>
+      <c r="F624" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="G624">
+        <v>70</v>
+      </c>
+      <c r="H624" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A625" s="3">
+        <v>218</v>
+      </c>
+      <c r="B625" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C625" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D625" s="2">
+        <v>33.822381999999998</v>
+      </c>
+      <c r="E625" s="2">
+        <v>-118.196792</v>
+      </c>
+      <c r="F625" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G625">
+        <v>71</v>
+      </c>
+      <c r="H625" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A626" s="3">
+        <v>219</v>
+      </c>
+      <c r="B626" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C626" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D626" s="2">
+        <v>33.813898000000002</v>
+      </c>
+      <c r="E626" s="2">
+        <v>-118.169315</v>
+      </c>
+      <c r="F626" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="G626">
+        <v>72</v>
+      </c>
+      <c r="H626" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A627" s="3">
+        <v>219</v>
+      </c>
+      <c r="B627" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C627" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D627" s="2">
+        <v>33.814120000000003</v>
+      </c>
+      <c r="E627" s="2">
+        <v>-118.16928799999999</v>
+      </c>
+      <c r="F627" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="G627">
+        <v>70</v>
+      </c>
+      <c r="H627" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A628" s="3">
+        <v>220</v>
+      </c>
+      <c r="B628" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C628" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H628" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A629" s="3">
+        <v>220</v>
+      </c>
+      <c r="B629" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C629" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D629" s="2">
+        <v>33.806497999999998</v>
+      </c>
+      <c r="E629" s="2">
+        <v>-118.147991</v>
+      </c>
+      <c r="F629" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="G629">
+        <v>70</v>
+      </c>
+      <c r="H629" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A630" s="3">
+        <v>221</v>
+      </c>
+      <c r="B630" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C630" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D630" s="2">
+        <v>33.802695999999997</v>
+      </c>
+      <c r="E630" s="2">
+        <v>-118.128906</v>
+      </c>
+      <c r="F630" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G630">
+        <v>70</v>
+      </c>
+      <c r="H630" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A631" s="3">
+        <v>221</v>
+      </c>
+      <c r="B631" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C631" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D631" s="2">
+        <v>33.802895999999997</v>
+      </c>
+      <c r="E631" s="2">
+        <v>-118.128995</v>
+      </c>
+      <c r="F631" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G631">
+        <v>71</v>
+      </c>
+      <c r="H631" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A632" s="3">
+        <v>222</v>
+      </c>
+      <c r="B632" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C632" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D632" s="2">
+        <v>33.799287</v>
+      </c>
+      <c r="E632" s="2">
+        <v>-118.11126</v>
+      </c>
+      <c r="F632" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G632">
+        <v>71</v>
+      </c>
+      <c r="H632" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A633" s="3">
+        <v>222</v>
+      </c>
+      <c r="B633" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C633" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D633" s="2">
+        <v>33.799472000000002</v>
+      </c>
+      <c r="E633" s="2">
+        <v>-118.11113</v>
+      </c>
+      <c r="F633" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="G633">
+        <v>70</v>
+      </c>
+      <c r="H633" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A634" s="3">
+        <v>223</v>
+      </c>
+      <c r="B634" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C634" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D634" s="2">
+        <v>33.787052000000003</v>
+      </c>
+      <c r="E634" s="2">
+        <v>-118.09490700000001</v>
+      </c>
+      <c r="F634" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G634">
+        <v>71</v>
+      </c>
+      <c r="H634" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A635" s="3">
+        <v>223</v>
+      </c>
+      <c r="B635" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C635" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D635" s="2">
+        <v>33.787196000000002</v>
+      </c>
+      <c r="E635" s="2">
+        <v>-118.094706</v>
+      </c>
+      <c r="F635" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G635">
+        <v>70</v>
+      </c>
+      <c r="H635" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A636" s="3">
+        <v>224</v>
+      </c>
+      <c r="B636" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C636" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D636" s="2">
+        <v>33.774192999999997</v>
+      </c>
+      <c r="E636" s="2">
+        <v>-118.079238</v>
+      </c>
+      <c r="F636" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="G636">
+        <v>73</v>
+      </c>
+      <c r="H636" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A637" s="3">
+        <v>224</v>
+      </c>
+      <c r="B637" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C637" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D637" s="2">
+        <v>33.774664999999999</v>
+      </c>
+      <c r="E637" s="2">
+        <v>-118.078965</v>
+      </c>
+      <c r="F637" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="G637">
+        <v>69</v>
+      </c>
+      <c r="H637" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A638" s="3">
+        <v>225</v>
+      </c>
+      <c r="B638" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C638" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D638" s="2">
+        <v>33.774028999999999</v>
+      </c>
+      <c r="E638" s="2">
+        <v>-118.051846</v>
+      </c>
+      <c r="F638" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G638">
+        <v>73</v>
+      </c>
+      <c r="H638" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A639" s="3">
+        <v>225</v>
+      </c>
+      <c r="B639" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C639" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D639" s="2">
+        <v>33.774574000000001</v>
+      </c>
+      <c r="E639" s="2">
+        <v>-118.05195500000001</v>
+      </c>
+      <c r="F639" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="G639">
+        <v>73</v>
+      </c>
+      <c r="H639" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A640" s="3">
+        <v>320</v>
+      </c>
+      <c r="B640" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C640" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D640" s="2">
+        <v>33.769072000000001</v>
+      </c>
+      <c r="E640" s="2">
+        <v>-118.034357</v>
+      </c>
+      <c r="F640" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G640">
+        <v>75</v>
+      </c>
+      <c r="H640" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A641" s="3">
+        <v>321</v>
+      </c>
+      <c r="B641" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C641" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D641" s="2"/>
+      <c r="E641" s="2"/>
+      <c r="F641" s="1"/>
+      <c r="H641" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A642" s="3">
+        <v>320</v>
+      </c>
+      <c r="B642" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C642" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D642" s="2">
+        <v>33.769271000000003</v>
+      </c>
+      <c r="E642" s="2">
+        <v>-118.03395500000001</v>
+      </c>
+      <c r="F642" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="G642">
+        <v>74</v>
+      </c>
+      <c r="H642" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A643" s="3">
+        <v>321</v>
+      </c>
+      <c r="B643" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C643" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D643" s="2">
+        <v>33.753895999999997</v>
+      </c>
+      <c r="E643" s="2">
+        <v>-118.01552</v>
+      </c>
+      <c r="F643" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G643">
+        <v>74</v>
+      </c>
+      <c r="H643" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A644" s="3">
+        <v>322</v>
+      </c>
+      <c r="B644" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C644" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D644" s="2">
+        <v>33.738672000000001</v>
+      </c>
+      <c r="E644" s="2">
+        <v>-117.997969</v>
+      </c>
+      <c r="F644" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G644">
+        <v>74</v>
+      </c>
+      <c r="H644" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A645" s="3">
+        <v>323</v>
+      </c>
+      <c r="B645" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C645" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H645" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A646" s="3">
+        <v>322</v>
+      </c>
+      <c r="B646" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C646" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D646" s="2">
+        <v>33.735142000000003</v>
+      </c>
+      <c r="E646" s="2">
+        <v>-117.992554</v>
+      </c>
+      <c r="F646" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="G646">
+        <v>74</v>
+      </c>
+      <c r="H646" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A647" s="3">
+        <v>323</v>
+      </c>
+      <c r="B647" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C647" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H647" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A648" s="3">
+        <v>324</v>
+      </c>
+      <c r="B648" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C648" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H648" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A649" s="3">
+        <v>324</v>
+      </c>
+      <c r="B649" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C649" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D649" s="2">
+        <v>33.717455999999999</v>
+      </c>
+      <c r="E649" s="2">
+        <v>-117.969274</v>
+      </c>
+      <c r="F649" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="G649">
+        <v>74</v>
+      </c>
+      <c r="H649" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A650" s="3">
+        <v>319</v>
+      </c>
+      <c r="B650" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C650" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D650" s="2">
+        <v>33.702677000000001</v>
+      </c>
+      <c r="E650" s="2">
+        <v>-117.951453</v>
+      </c>
+      <c r="F650" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="G650">
+        <v>75</v>
+      </c>
+      <c r="H650" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A651" s="3">
+        <v>319</v>
+      </c>
+      <c r="B651" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C651" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D651" s="2">
+        <v>33.702314999999999</v>
+      </c>
+      <c r="E651" s="2">
+        <v>-117.95005</v>
+      </c>
+      <c r="F651" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="G651">
+        <v>73</v>
+      </c>
+      <c r="H651" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A652" s="3">
+        <v>318</v>
+      </c>
+      <c r="B652" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C652" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D652" s="2">
+        <v>33.691012000000001</v>
+      </c>
+      <c r="E652" s="2">
+        <v>-117.924469</v>
+      </c>
+      <c r="F652" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G652">
+        <v>73</v>
+      </c>
+      <c r="H652" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A653" s="3">
+        <v>318</v>
+      </c>
+      <c r="B653" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C653" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D653" s="2">
+        <v>33.691284000000003</v>
+      </c>
+      <c r="E653" s="2">
+        <v>-117.923817</v>
+      </c>
+      <c r="F653" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="G653">
+        <v>73</v>
+      </c>
+      <c r="H653" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/led_locations.xlsx
+++ b/led_locations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapti\Documents\traffic-pcb-sb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDFEB85-CD9B-45AC-8127-EC9F5B474752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19ACA3A6-C04A-428F-940F-EFEA5C39B2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="554">
   <si>
     <t>LED Number</t>
   </si>
@@ -2035,8 +2035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H653"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="D659" sqref="D659"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2165,6 +2165,18 @@
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>-2</v>
+      </c>
       <c r="H5" t="s">
         <v>14</v>
       </c>
@@ -2205,6 +2217,18 @@
       <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>-2</v>
+      </c>
       <c r="H7" t="s">
         <v>14</v>
       </c>
@@ -2245,6 +2269,18 @@
       <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>-4</v>
+      </c>
       <c r="H9" t="s">
         <v>14</v>
       </c>
@@ -2285,6 +2321,18 @@
       <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>-4</v>
+      </c>
       <c r="H11" t="s">
         <v>14</v>
       </c>
@@ -3001,6 +3049,18 @@
       <c r="C39" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>-19</v>
+      </c>
       <c r="H39" t="s">
         <v>14</v>
       </c>
@@ -3067,6 +3127,18 @@
       <c r="C42" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>-20</v>
+      </c>
       <c r="H42" t="s">
         <v>14</v>
       </c>
@@ -3107,7 +3179,18 @@
       <c r="C44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F44" s="1"/>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>-21</v>
+      </c>
       <c r="H44" t="s">
         <v>14</v>
       </c>
@@ -3278,9 +3361,18 @@
       <c r="C51" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="1"/>
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>-26</v>
+      </c>
       <c r="H51" t="s">
         <v>14</v>
       </c>
@@ -3321,6 +3413,18 @@
       <c r="C53" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D53" s="2">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>-25</v>
+      </c>
       <c r="H53" t="s">
         <v>14</v>
       </c>
@@ -3335,6 +3439,18 @@
       <c r="C54" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D54" s="2">
+        <v>0</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>-25</v>
+      </c>
       <c r="H54" t="s">
         <v>14</v>
       </c>
@@ -3349,6 +3465,18 @@
       <c r="C55" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D55" s="2">
+        <v>0</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>-25</v>
+      </c>
       <c r="H55" t="s">
         <v>14</v>
       </c>
@@ -3363,6 +3491,18 @@
       <c r="C56" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D56" s="2">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>-25</v>
+      </c>
       <c r="H56" t="s">
         <v>14</v>
       </c>
@@ -3377,6 +3517,18 @@
       <c r="C57" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D57" s="2">
+        <v>0</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>-25</v>
+      </c>
       <c r="H57" t="s">
         <v>14</v>
       </c>
@@ -3391,6 +3543,18 @@
       <c r="C58" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D58" s="2">
+        <v>0</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>-25</v>
+      </c>
       <c r="H58" t="s">
         <v>14</v>
       </c>
@@ -3405,6 +3569,18 @@
       <c r="C59" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D59" s="2">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>-25</v>
+      </c>
       <c r="H59" t="s">
         <v>14</v>
       </c>
@@ -3445,6 +3621,18 @@
       <c r="C61" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D61" s="2">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>-27</v>
+      </c>
       <c r="H61" t="s">
         <v>14</v>
       </c>
@@ -3459,6 +3647,18 @@
       <c r="C62" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D62" s="2">
+        <v>0</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>-27</v>
+      </c>
       <c r="H62" t="s">
         <v>14</v>
       </c>
@@ -3473,6 +3673,18 @@
       <c r="C63" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D63" s="2">
+        <v>0</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>-27</v>
+      </c>
       <c r="H63" t="s">
         <v>14</v>
       </c>
@@ -3487,6 +3699,18 @@
       <c r="C64" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D64" s="2">
+        <v>0</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>-27</v>
+      </c>
       <c r="H64" t="s">
         <v>14</v>
       </c>
@@ -3501,6 +3725,18 @@
       <c r="C65" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D65" s="2">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>-27</v>
+      </c>
       <c r="H65" t="s">
         <v>14</v>
       </c>
@@ -3515,6 +3751,18 @@
       <c r="C66" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D66" s="2">
+        <v>0</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>-27</v>
+      </c>
       <c r="H66" t="s">
         <v>14</v>
       </c>
@@ -3607,6 +3855,18 @@
       <c r="C70" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D70" s="2">
+        <v>0</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>-34</v>
+      </c>
       <c r="H70" t="s">
         <v>14</v>
       </c>
@@ -3751,6 +4011,18 @@
       <c r="C76" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D76" s="2">
+        <v>0</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>-37</v>
+      </c>
       <c r="H76" t="s">
         <v>14</v>
       </c>
@@ -4147,7 +4419,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B92" s="3">
         <v>101</v>
@@ -4173,7 +4445,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B93" s="3">
         <v>101</v>
@@ -4207,6 +4479,18 @@
       <c r="C94" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D94" s="2">
+        <v>0</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>-73</v>
+      </c>
       <c r="H94" t="s">
         <v>14</v>
       </c>
@@ -4325,6 +4609,18 @@
       <c r="C99" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D99" s="2">
+        <v>0</v>
+      </c>
+      <c r="E99" s="2">
+        <v>0</v>
+      </c>
+      <c r="F99" s="3">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>-76</v>
+      </c>
       <c r="H99" t="s">
         <v>14</v>
       </c>
@@ -4365,6 +4661,18 @@
       <c r="C101" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D101" s="2">
+        <v>0</v>
+      </c>
+      <c r="E101" s="2">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>-76</v>
+      </c>
       <c r="H101" t="s">
         <v>14</v>
       </c>
@@ -4587,6 +4895,18 @@
       <c r="C110" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D110" s="2">
+        <v>0</v>
+      </c>
+      <c r="E110" s="2">
+        <v>0</v>
+      </c>
+      <c r="F110" s="3">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>-81</v>
+      </c>
       <c r="H110" t="s">
         <v>14</v>
       </c>
@@ -4965,6 +5285,18 @@
       <c r="C125" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D125" s="2">
+        <v>0</v>
+      </c>
+      <c r="E125" s="2">
+        <v>0</v>
+      </c>
+      <c r="F125" s="3">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>-107</v>
+      </c>
       <c r="H125" t="s">
         <v>14</v>
       </c>
@@ -5005,6 +5337,18 @@
       <c r="C127" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D127" s="2">
+        <v>0</v>
+      </c>
+      <c r="E127" s="2">
+        <v>0</v>
+      </c>
+      <c r="F127" s="3">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>-107</v>
+      </c>
       <c r="H127" t="s">
         <v>14</v>
       </c>
@@ -5123,6 +5467,18 @@
       <c r="C132" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D132" s="2">
+        <v>0</v>
+      </c>
+      <c r="E132" s="2">
+        <v>0</v>
+      </c>
+      <c r="F132" s="3">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>-146</v>
+      </c>
       <c r="H132" t="s">
         <v>14</v>
       </c>
@@ -5137,6 +5493,18 @@
       <c r="C133" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D133" s="2">
+        <v>0</v>
+      </c>
+      <c r="E133" s="2">
+        <v>0</v>
+      </c>
+      <c r="F133" s="3">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>-146</v>
+      </c>
       <c r="H133" t="s">
         <v>14</v>
       </c>
@@ -5151,6 +5519,18 @@
       <c r="C134" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D134" s="2">
+        <v>0</v>
+      </c>
+      <c r="E134" s="2">
+        <v>0</v>
+      </c>
+      <c r="F134" s="3">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>-146</v>
+      </c>
       <c r="H134" t="s">
         <v>14</v>
       </c>
@@ -5815,6 +6195,18 @@
       <c r="C160" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D160" s="2">
+        <v>0</v>
+      </c>
+      <c r="E160" s="2">
+        <v>0</v>
+      </c>
+      <c r="F160" s="3">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>-250</v>
+      </c>
       <c r="H160" t="s">
         <v>14</v>
       </c>
@@ -5829,6 +6221,21 @@
       <c r="C161" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D161" s="2">
+        <v>0</v>
+      </c>
+      <c r="E161" s="2">
+        <v>0</v>
+      </c>
+      <c r="F161" s="3">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>-250</v>
+      </c>
+      <c r="H161" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
@@ -7478,6 +7885,18 @@
       <c r="C225" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D225" s="2">
+        <v>0</v>
+      </c>
+      <c r="E225" s="2">
+        <v>0</v>
+      </c>
+      <c r="F225" s="3">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>-61</v>
+      </c>
       <c r="H225" t="s">
         <v>14</v>
       </c>
@@ -7492,6 +7911,18 @@
       <c r="C226" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D226" s="2">
+        <v>0</v>
+      </c>
+      <c r="E226" s="2">
+        <v>0</v>
+      </c>
+      <c r="F226" s="3">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>-61</v>
+      </c>
       <c r="H226" t="s">
         <v>14</v>
       </c>
@@ -7506,6 +7937,18 @@
       <c r="C227" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D227" s="2">
+        <v>0</v>
+      </c>
+      <c r="E227" s="2">
+        <v>0</v>
+      </c>
+      <c r="F227" s="3">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>-61</v>
+      </c>
       <c r="H227" t="s">
         <v>14</v>
       </c>
@@ -7520,6 +7963,18 @@
       <c r="C228" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D228" s="2">
+        <v>0</v>
+      </c>
+      <c r="E228" s="2">
+        <v>0</v>
+      </c>
+      <c r="F228" s="3">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>-61</v>
+      </c>
       <c r="H228" t="s">
         <v>14</v>
       </c>
@@ -7534,6 +7989,18 @@
       <c r="C229" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D229" s="2">
+        <v>0</v>
+      </c>
+      <c r="E229" s="2">
+        <v>0</v>
+      </c>
+      <c r="F229" s="3">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>-61</v>
+      </c>
       <c r="H229" t="s">
         <v>14</v>
       </c>
@@ -7574,6 +8041,21 @@
       <c r="C231" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D231" s="2">
+        <v>0</v>
+      </c>
+      <c r="E231" s="2">
+        <v>0</v>
+      </c>
+      <c r="F231" s="3">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>-61</v>
+      </c>
+      <c r="H231" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
@@ -7585,6 +8067,21 @@
       <c r="C232" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D232" s="2">
+        <v>0</v>
+      </c>
+      <c r="E232" s="2">
+        <v>0</v>
+      </c>
+      <c r="F232" s="3">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>-61</v>
+      </c>
+      <c r="H232" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
@@ -7596,6 +8093,21 @@
       <c r="C233" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D233" s="2">
+        <v>0</v>
+      </c>
+      <c r="E233" s="2">
+        <v>0</v>
+      </c>
+      <c r="F233" s="3">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>-61</v>
+      </c>
+      <c r="H233" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
@@ -7607,6 +8119,21 @@
       <c r="C234" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D234" s="2">
+        <v>0</v>
+      </c>
+      <c r="E234" s="2">
+        <v>0</v>
+      </c>
+      <c r="F234" s="3">
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <v>-61</v>
+      </c>
+      <c r="H234" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
@@ -7618,6 +8145,21 @@
       <c r="C235" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D235" s="2">
+        <v>0</v>
+      </c>
+      <c r="E235" s="2">
+        <v>0</v>
+      </c>
+      <c r="F235" s="3">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>-61</v>
+      </c>
+      <c r="H235" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
@@ -7655,6 +8197,18 @@
       <c r="C237" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D237" s="2">
+        <v>0</v>
+      </c>
+      <c r="E237" s="2">
+        <v>0</v>
+      </c>
+      <c r="F237" s="3">
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <v>-85</v>
+      </c>
       <c r="H237" t="s">
         <v>14</v>
       </c>
@@ -7695,6 +8249,18 @@
       <c r="C239" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D239" s="2">
+        <v>0</v>
+      </c>
+      <c r="E239" s="2">
+        <v>0</v>
+      </c>
+      <c r="F239" s="3">
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <v>-85</v>
+      </c>
       <c r="H239" t="s">
         <v>14</v>
       </c>
@@ -7735,6 +8301,18 @@
       <c r="C241" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D241" s="2">
+        <v>0</v>
+      </c>
+      <c r="E241" s="2">
+        <v>0</v>
+      </c>
+      <c r="F241" s="3">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>-87</v>
+      </c>
       <c r="H241" t="s">
         <v>14</v>
       </c>
@@ -7775,6 +8353,18 @@
       <c r="C243" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D243" s="2">
+        <v>0</v>
+      </c>
+      <c r="E243" s="2">
+        <v>0</v>
+      </c>
+      <c r="F243" s="3">
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <v>-87</v>
+      </c>
       <c r="H243" t="s">
         <v>14</v>
       </c>
@@ -7815,6 +8405,18 @@
       <c r="C245" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D245" s="2">
+        <v>0</v>
+      </c>
+      <c r="E245" s="2">
+        <v>0</v>
+      </c>
+      <c r="F245" s="3">
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <v>-89</v>
+      </c>
       <c r="H245" t="s">
         <v>14</v>
       </c>
@@ -7829,6 +8431,18 @@
       <c r="C246" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D246" s="2">
+        <v>0</v>
+      </c>
+      <c r="E246" s="2">
+        <v>0</v>
+      </c>
+      <c r="F246" s="3">
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <v>-89</v>
+      </c>
       <c r="H246" t="s">
         <v>14</v>
       </c>
@@ -7843,6 +8457,18 @@
       <c r="C247" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D247" s="2">
+        <v>0</v>
+      </c>
+      <c r="E247" s="2">
+        <v>0</v>
+      </c>
+      <c r="F247" s="3">
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <v>-89</v>
+      </c>
       <c r="H247" t="s">
         <v>14</v>
       </c>
@@ -7883,6 +8509,21 @@
       <c r="C249" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D249" s="2">
+        <v>0</v>
+      </c>
+      <c r="E249" s="2">
+        <v>0</v>
+      </c>
+      <c r="F249" s="3">
+        <v>0</v>
+      </c>
+      <c r="G249">
+        <v>-88</v>
+      </c>
+      <c r="H249" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
@@ -7894,6 +8535,21 @@
       <c r="C250" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D250" s="2">
+        <v>0</v>
+      </c>
+      <c r="E250" s="2">
+        <v>0</v>
+      </c>
+      <c r="F250" s="3">
+        <v>0</v>
+      </c>
+      <c r="G250">
+        <v>-88</v>
+      </c>
+      <c r="H250" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
@@ -7905,6 +8561,21 @@
       <c r="C251" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D251" s="2">
+        <v>0</v>
+      </c>
+      <c r="E251" s="2">
+        <v>0</v>
+      </c>
+      <c r="F251" s="3">
+        <v>0</v>
+      </c>
+      <c r="G251">
+        <v>-88</v>
+      </c>
+      <c r="H251" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
@@ -7994,6 +8665,18 @@
       <c r="C255" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D255" s="2">
+        <v>0</v>
+      </c>
+      <c r="E255" s="2">
+        <v>0</v>
+      </c>
+      <c r="F255" s="3">
+        <v>0</v>
+      </c>
+      <c r="G255">
+        <v>-112</v>
+      </c>
       <c r="H255" t="s">
         <v>14</v>
       </c>
@@ -8034,6 +8717,18 @@
       <c r="C257" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D257" s="2">
+        <v>0</v>
+      </c>
+      <c r="E257" s="2">
+        <v>0</v>
+      </c>
+      <c r="F257" s="3">
+        <v>0</v>
+      </c>
+      <c r="G257">
+        <v>-112</v>
+      </c>
       <c r="H257" t="s">
         <v>14</v>
       </c>
@@ -8074,6 +8769,18 @@
       <c r="C259" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D259" s="2">
+        <v>0</v>
+      </c>
+      <c r="E259" s="2">
+        <v>0</v>
+      </c>
+      <c r="F259" s="3">
+        <v>0</v>
+      </c>
+      <c r="G259">
+        <v>-114</v>
+      </c>
       <c r="H259" t="s">
         <v>14</v>
       </c>
@@ -8114,6 +8821,18 @@
       <c r="C261" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D261" s="2">
+        <v>0</v>
+      </c>
+      <c r="E261" s="2">
+        <v>0</v>
+      </c>
+      <c r="F261" s="3">
+        <v>0</v>
+      </c>
+      <c r="G261">
+        <v>-114</v>
+      </c>
       <c r="H261" t="s">
         <v>14</v>
       </c>
@@ -8154,6 +8873,18 @@
       <c r="C263" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D263" s="2">
+        <v>0</v>
+      </c>
+      <c r="E263" s="2">
+        <v>0</v>
+      </c>
+      <c r="F263" s="3">
+        <v>0</v>
+      </c>
+      <c r="G263">
+        <v>-116</v>
+      </c>
       <c r="H263" t="s">
         <v>14</v>
       </c>
@@ -8168,6 +8899,18 @@
       <c r="C264" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D264" s="2">
+        <v>0</v>
+      </c>
+      <c r="E264" s="2">
+        <v>0</v>
+      </c>
+      <c r="F264" s="3">
+        <v>0</v>
+      </c>
+      <c r="G264">
+        <v>-116</v>
+      </c>
       <c r="H264" t="s">
         <v>14</v>
       </c>
@@ -8208,6 +8951,18 @@
       <c r="C266" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D266" s="2">
+        <v>0</v>
+      </c>
+      <c r="E266" s="2">
+        <v>0</v>
+      </c>
+      <c r="F266" s="3">
+        <v>0</v>
+      </c>
+      <c r="G266">
+        <v>-116</v>
+      </c>
       <c r="H266" t="s">
         <v>14</v>
       </c>
@@ -8222,6 +8977,18 @@
       <c r="C267" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D267" s="2">
+        <v>0</v>
+      </c>
+      <c r="E267" s="2">
+        <v>0</v>
+      </c>
+      <c r="F267" s="3">
+        <v>0</v>
+      </c>
+      <c r="G267">
+        <v>-116</v>
+      </c>
       <c r="H267" t="s">
         <v>14</v>
       </c>
@@ -8262,6 +9029,18 @@
       <c r="C269" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D269" s="2">
+        <v>0</v>
+      </c>
+      <c r="E269" s="2">
+        <v>0</v>
+      </c>
+      <c r="F269" s="3">
+        <v>0</v>
+      </c>
+      <c r="G269">
+        <v>-155</v>
+      </c>
       <c r="H269" t="s">
         <v>14</v>
       </c>
@@ -8276,6 +9055,18 @@
       <c r="C270" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D270" s="2">
+        <v>0</v>
+      </c>
+      <c r="E270" s="2">
+        <v>0</v>
+      </c>
+      <c r="F270" s="3">
+        <v>0</v>
+      </c>
+      <c r="G270">
+        <v>-155</v>
+      </c>
       <c r="H270" t="s">
         <v>14</v>
       </c>
@@ -8290,6 +9081,18 @@
       <c r="C271" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D271" s="2">
+        <v>0</v>
+      </c>
+      <c r="E271" s="2">
+        <v>0</v>
+      </c>
+      <c r="F271" s="3">
+        <v>0</v>
+      </c>
+      <c r="G271">
+        <v>-155</v>
+      </c>
       <c r="H271" t="s">
         <v>14</v>
       </c>
@@ -8330,6 +9133,18 @@
       <c r="C273" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D273" s="2">
+        <v>0</v>
+      </c>
+      <c r="E273" s="2">
+        <v>0</v>
+      </c>
+      <c r="F273" s="3">
+        <v>0</v>
+      </c>
+      <c r="G273">
+        <v>-155</v>
+      </c>
       <c r="H273" t="s">
         <v>14</v>
       </c>
@@ -8344,6 +9159,18 @@
       <c r="C274" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D274" s="2">
+        <v>0</v>
+      </c>
+      <c r="E274" s="2">
+        <v>0</v>
+      </c>
+      <c r="F274" s="3">
+        <v>0</v>
+      </c>
+      <c r="G274">
+        <v>-155</v>
+      </c>
       <c r="H274" t="s">
         <v>14</v>
       </c>
@@ -8722,6 +9549,18 @@
       <c r="C289" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D289" s="2">
+        <v>0</v>
+      </c>
+      <c r="E289" s="2">
+        <v>0</v>
+      </c>
+      <c r="F289" s="3">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>-192</v>
+      </c>
       <c r="H289" t="s">
         <v>14</v>
       </c>
@@ -9490,6 +10329,18 @@
       <c r="C319" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D319" s="2">
+        <v>0</v>
+      </c>
+      <c r="E319" s="2">
+        <v>0</v>
+      </c>
+      <c r="F319" s="3">
+        <v>0</v>
+      </c>
+      <c r="G319">
+        <v>-207</v>
+      </c>
       <c r="H319" t="s">
         <v>14</v>
       </c>
@@ -9530,6 +10381,18 @@
       <c r="C321" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D321" s="2">
+        <v>0</v>
+      </c>
+      <c r="E321" s="2">
+        <v>0</v>
+      </c>
+      <c r="F321" s="3">
+        <v>0</v>
+      </c>
+      <c r="G321">
+        <v>-207</v>
+      </c>
       <c r="H321" t="s">
         <v>14</v>
       </c>
@@ -9882,6 +10745,18 @@
       <c r="C335" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D335" s="2">
+        <v>0</v>
+      </c>
+      <c r="E335" s="2">
+        <v>0</v>
+      </c>
+      <c r="F335" s="3">
+        <v>0</v>
+      </c>
+      <c r="G335">
+        <v>-233</v>
+      </c>
       <c r="H335" t="s">
         <v>14</v>
       </c>
@@ -9922,6 +10797,18 @@
       <c r="C337" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D337" s="2">
+        <v>0</v>
+      </c>
+      <c r="E337" s="2">
+        <v>0</v>
+      </c>
+      <c r="F337" s="3">
+        <v>0</v>
+      </c>
+      <c r="G337">
+        <v>-233</v>
+      </c>
       <c r="H337" t="s">
         <v>14</v>
       </c>
@@ -9962,6 +10849,18 @@
       <c r="C339" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D339" s="2">
+        <v>0</v>
+      </c>
+      <c r="E339" s="2">
+        <v>0</v>
+      </c>
+      <c r="F339" s="3">
+        <v>0</v>
+      </c>
+      <c r="G339">
+        <v>-329</v>
+      </c>
       <c r="H339" t="s">
         <v>14</v>
       </c>
@@ -10002,6 +10901,18 @@
       <c r="C341" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D341" s="2">
+        <v>0</v>
+      </c>
+      <c r="E341" s="2">
+        <v>0</v>
+      </c>
+      <c r="F341" s="3">
+        <v>0</v>
+      </c>
+      <c r="G341">
+        <v>-329</v>
+      </c>
       <c r="H341" t="s">
         <v>14</v>
       </c>
@@ -10458,9 +11369,18 @@
       <c r="C359" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D359" s="2"/>
-      <c r="E359" s="2"/>
-      <c r="F359" s="1"/>
+      <c r="D359" s="2">
+        <v>0</v>
+      </c>
+      <c r="E359" s="2">
+        <v>0</v>
+      </c>
+      <c r="F359" s="3">
+        <v>0</v>
+      </c>
+      <c r="G359">
+        <v>-54</v>
+      </c>
       <c r="H359" t="s">
         <v>14</v>
       </c>
@@ -10501,6 +11421,18 @@
       <c r="C361" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D361" s="2">
+        <v>0</v>
+      </c>
+      <c r="E361" s="2">
+        <v>0</v>
+      </c>
+      <c r="F361" s="3">
+        <v>0</v>
+      </c>
+      <c r="G361">
+        <v>-54</v>
+      </c>
       <c r="H361" t="s">
         <v>14</v>
       </c>
@@ -10801,9 +11733,18 @@
       <c r="C373" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D373" s="2"/>
-      <c r="E373" s="2"/>
-      <c r="F373" s="1"/>
+      <c r="D373" s="2">
+        <v>0</v>
+      </c>
+      <c r="E373" s="2">
+        <v>0</v>
+      </c>
+      <c r="F373" s="3">
+        <v>0</v>
+      </c>
+      <c r="G373">
+        <v>-70</v>
+      </c>
       <c r="H373" t="s">
         <v>14</v>
       </c>
@@ -10818,9 +11759,18 @@
       <c r="C374" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D374" s="2"/>
-      <c r="E374" s="2"/>
-      <c r="F374" s="1"/>
+      <c r="D374" s="2">
+        <v>0</v>
+      </c>
+      <c r="E374" s="2">
+        <v>0</v>
+      </c>
+      <c r="F374" s="3">
+        <v>0</v>
+      </c>
+      <c r="G374">
+        <v>-70</v>
+      </c>
       <c r="H374" t="s">
         <v>14</v>
       </c>
@@ -10861,6 +11811,18 @@
       <c r="C376" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D376" s="2">
+        <v>0</v>
+      </c>
+      <c r="E376" s="2">
+        <v>0</v>
+      </c>
+      <c r="F376" s="3">
+        <v>0</v>
+      </c>
+      <c r="G376">
+        <v>-70</v>
+      </c>
       <c r="H376" t="s">
         <v>14</v>
       </c>
@@ -11187,6 +12149,18 @@
       <c r="C389" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D389" s="2">
+        <v>0</v>
+      </c>
+      <c r="E389" s="2">
+        <v>0</v>
+      </c>
+      <c r="F389" s="3">
+        <v>0</v>
+      </c>
+      <c r="G389">
+        <v>-96</v>
+      </c>
       <c r="H389" t="s">
         <v>14</v>
       </c>
@@ -11227,6 +12201,18 @@
       <c r="C391" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D391" s="2">
+        <v>0</v>
+      </c>
+      <c r="E391" s="2">
+        <v>0</v>
+      </c>
+      <c r="F391" s="3">
+        <v>0</v>
+      </c>
+      <c r="G391">
+        <v>-96</v>
+      </c>
       <c r="H391" t="s">
         <v>14</v>
       </c>
@@ -11475,6 +12461,18 @@
       <c r="C401" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D401" s="2">
+        <v>0</v>
+      </c>
+      <c r="E401" s="2">
+        <v>0</v>
+      </c>
+      <c r="F401" s="3">
+        <v>0</v>
+      </c>
+      <c r="G401">
+        <v>-138</v>
+      </c>
       <c r="H401" t="s">
         <v>14</v>
       </c>
@@ -11931,6 +12929,18 @@
       <c r="C419" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D419" s="2">
+        <v>0</v>
+      </c>
+      <c r="E419" s="2">
+        <v>0</v>
+      </c>
+      <c r="F419" s="3">
+        <v>0</v>
+      </c>
+      <c r="G419">
+        <v>-166</v>
+      </c>
       <c r="H419" t="s">
         <v>14</v>
       </c>
@@ -12075,6 +13085,18 @@
       <c r="C425" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D425" s="2">
+        <v>0</v>
+      </c>
+      <c r="E425" s="2">
+        <v>0</v>
+      </c>
+      <c r="F425" s="3">
+        <v>0</v>
+      </c>
+      <c r="G425">
+        <v>-169</v>
+      </c>
       <c r="H425" t="s">
         <v>14</v>
       </c>
@@ -12141,6 +13163,18 @@
       <c r="C428" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D428" s="2">
+        <v>0</v>
+      </c>
+      <c r="E428" s="2">
+        <v>0</v>
+      </c>
+      <c r="F428" s="3">
+        <v>0</v>
+      </c>
+      <c r="G428">
+        <v>-170</v>
+      </c>
       <c r="H428" t="s">
         <v>14</v>
       </c>
@@ -12155,6 +13189,18 @@
       <c r="C429" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D429" s="2">
+        <v>0</v>
+      </c>
+      <c r="E429" s="2">
+        <v>0</v>
+      </c>
+      <c r="F429" s="3">
+        <v>0</v>
+      </c>
+      <c r="G429">
+        <v>-170</v>
+      </c>
       <c r="H429" t="s">
         <v>14</v>
       </c>
@@ -12169,6 +13215,18 @@
       <c r="C430" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D430" s="2">
+        <v>0</v>
+      </c>
+      <c r="E430" s="2">
+        <v>0</v>
+      </c>
+      <c r="F430" s="3">
+        <v>0</v>
+      </c>
+      <c r="G430">
+        <v>-170</v>
+      </c>
       <c r="H430" t="s">
         <v>14</v>
       </c>
@@ -12209,6 +13267,18 @@
       <c r="C432" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D432" s="2">
+        <v>0</v>
+      </c>
+      <c r="E432" s="2">
+        <v>0</v>
+      </c>
+      <c r="F432" s="3">
+        <v>0</v>
+      </c>
+      <c r="G432">
+        <v>-171</v>
+      </c>
       <c r="H432" t="s">
         <v>14</v>
       </c>
@@ -12405,6 +13475,18 @@
       <c r="C440" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D440" s="2">
+        <v>0</v>
+      </c>
+      <c r="E440" s="2">
+        <v>0</v>
+      </c>
+      <c r="F440" s="3">
+        <v>0</v>
+      </c>
+      <c r="G440">
+        <v>-257</v>
+      </c>
       <c r="H440" t="s">
         <v>14</v>
       </c>
@@ -13251,6 +14333,18 @@
       <c r="C473" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D473" s="2">
+        <v>0</v>
+      </c>
+      <c r="E473" s="2">
+        <v>0</v>
+      </c>
+      <c r="F473" s="3">
+        <v>0</v>
+      </c>
+      <c r="G473">
+        <v>-118</v>
+      </c>
       <c r="H473" t="s">
         <v>14</v>
       </c>
@@ -13265,6 +14359,18 @@
       <c r="C474" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D474" s="2">
+        <v>0</v>
+      </c>
+      <c r="E474" s="2">
+        <v>0</v>
+      </c>
+      <c r="F474" s="3">
+        <v>0</v>
+      </c>
+      <c r="G474">
+        <v>-118</v>
+      </c>
       <c r="H474" t="s">
         <v>14</v>
       </c>
@@ -13279,6 +14385,18 @@
       <c r="C475" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D475" s="2">
+        <v>0</v>
+      </c>
+      <c r="E475" s="2">
+        <v>0</v>
+      </c>
+      <c r="F475" s="3">
+        <v>0</v>
+      </c>
+      <c r="G475">
+        <v>-118</v>
+      </c>
       <c r="H475" t="s">
         <v>14</v>
       </c>
@@ -13319,6 +14437,18 @@
       <c r="C477" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D477" s="2">
+        <v>0</v>
+      </c>
+      <c r="E477" s="2">
+        <v>0</v>
+      </c>
+      <c r="F477" s="3">
+        <v>0</v>
+      </c>
+      <c r="G477">
+        <v>-118</v>
+      </c>
       <c r="H477" t="s">
         <v>14</v>
       </c>
@@ -13333,6 +14463,18 @@
       <c r="C478" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D478" s="2">
+        <v>0</v>
+      </c>
+      <c r="E478" s="2">
+        <v>0</v>
+      </c>
+      <c r="F478" s="3">
+        <v>0</v>
+      </c>
+      <c r="G478">
+        <v>-118</v>
+      </c>
       <c r="H478" t="s">
         <v>14</v>
       </c>
@@ -13347,6 +14489,18 @@
       <c r="C479" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D479" s="2">
+        <v>0</v>
+      </c>
+      <c r="E479" s="2">
+        <v>0</v>
+      </c>
+      <c r="F479" s="3">
+        <v>0</v>
+      </c>
+      <c r="G479">
+        <v>-118</v>
+      </c>
       <c r="H479" t="s">
         <v>14</v>
       </c>
@@ -13413,6 +14567,18 @@
       <c r="C482" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D482" s="2">
+        <v>0</v>
+      </c>
+      <c r="E482" s="2">
+        <v>0</v>
+      </c>
+      <c r="F482" s="3">
+        <v>0</v>
+      </c>
+      <c r="G482">
+        <v>-122</v>
+      </c>
       <c r="H482" t="s">
         <v>14</v>
       </c>
@@ -13427,6 +14593,18 @@
       <c r="C483" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D483" s="2">
+        <v>0</v>
+      </c>
+      <c r="E483" s="2">
+        <v>0</v>
+      </c>
+      <c r="F483" s="3">
+        <v>0</v>
+      </c>
+      <c r="G483">
+        <v>-122</v>
+      </c>
       <c r="H483" t="s">
         <v>14</v>
       </c>
@@ -13779,6 +14957,18 @@
       <c r="C497" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D497" s="2">
+        <v>0</v>
+      </c>
+      <c r="E497" s="2">
+        <v>0</v>
+      </c>
+      <c r="F497" s="3">
+        <v>0</v>
+      </c>
+      <c r="G497">
+        <v>-131</v>
+      </c>
       <c r="H497" t="s">
         <v>14</v>
       </c>
@@ -13819,6 +15009,18 @@
       <c r="C499" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D499" s="2">
+        <v>0</v>
+      </c>
+      <c r="E499" s="2">
+        <v>0</v>
+      </c>
+      <c r="F499" s="3">
+        <v>0</v>
+      </c>
+      <c r="G499">
+        <v>-131</v>
+      </c>
       <c r="H499" t="s">
         <v>14</v>
       </c>
@@ -14145,9 +15347,18 @@
       <c r="C512" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D512" s="2"/>
-      <c r="E512" s="2"/>
-      <c r="F512" s="1"/>
+      <c r="D512" s="2">
+        <v>0</v>
+      </c>
+      <c r="E512" s="2">
+        <v>0</v>
+      </c>
+      <c r="F512" s="3">
+        <v>0</v>
+      </c>
+      <c r="G512">
+        <v>-235</v>
+      </c>
       <c r="H512" t="s">
         <v>14</v>
       </c>
@@ -14292,6 +15503,18 @@
       <c r="C518" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D518" s="2">
+        <v>0</v>
+      </c>
+      <c r="E518" s="2">
+        <v>0</v>
+      </c>
+      <c r="F518" s="3">
+        <v>0</v>
+      </c>
+      <c r="G518">
+        <v>-238</v>
+      </c>
       <c r="H518" t="s">
         <v>14</v>
       </c>
@@ -15138,9 +16361,18 @@
       <c r="C551" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D551" s="2"/>
-      <c r="E551" s="2"/>
-      <c r="F551" s="1"/>
+      <c r="D551" s="2">
+        <v>0</v>
+      </c>
+      <c r="E551" s="2">
+        <v>0</v>
+      </c>
+      <c r="F551" s="3">
+        <v>0</v>
+      </c>
+      <c r="G551">
+        <v>-291</v>
+      </c>
       <c r="H551" t="s">
         <v>14</v>
       </c>
@@ -16299,6 +17531,18 @@
       <c r="C596" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D596" s="2">
+        <v>0</v>
+      </c>
+      <c r="E596" s="2">
+        <v>0</v>
+      </c>
+      <c r="F596" s="3">
+        <v>0</v>
+      </c>
+      <c r="G596">
+        <v>-185</v>
+      </c>
       <c r="H596" t="s">
         <v>14</v>
       </c>
@@ -16417,6 +17661,18 @@
       <c r="C601" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D601" s="2">
+        <v>0</v>
+      </c>
+      <c r="E601" s="2">
+        <v>0</v>
+      </c>
+      <c r="F601" s="3">
+        <v>0</v>
+      </c>
+      <c r="G601">
+        <v>-188</v>
+      </c>
       <c r="H601" t="s">
         <v>14</v>
       </c>
@@ -17107,6 +18363,18 @@
       <c r="C628" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D628" s="2">
+        <v>0</v>
+      </c>
+      <c r="E628" s="2">
+        <v>0</v>
+      </c>
+      <c r="F628" s="3">
+        <v>0</v>
+      </c>
+      <c r="G628">
+        <v>-219</v>
+      </c>
       <c r="H628" t="s">
         <v>14</v>
       </c>
@@ -17433,9 +18701,18 @@
       <c r="C641" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D641" s="2"/>
-      <c r="E641" s="2"/>
-      <c r="F641" s="1"/>
+      <c r="D641" s="2">
+        <v>0</v>
+      </c>
+      <c r="E641" s="2">
+        <v>0</v>
+      </c>
+      <c r="F641" s="3">
+        <v>0</v>
+      </c>
+      <c r="G641">
+        <v>-320</v>
+      </c>
       <c r="H641" t="s">
         <v>14</v>
       </c>
@@ -17528,6 +18805,18 @@
       <c r="C645" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D645" s="2">
+        <v>0</v>
+      </c>
+      <c r="E645" s="2">
+        <v>0</v>
+      </c>
+      <c r="F645" s="3">
+        <v>0</v>
+      </c>
+      <c r="G645">
+        <v>-322</v>
+      </c>
       <c r="H645" t="s">
         <v>14</v>
       </c>
@@ -17568,6 +18857,18 @@
       <c r="C647" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D647" s="2">
+        <v>0</v>
+      </c>
+      <c r="E647" s="2">
+        <v>0</v>
+      </c>
+      <c r="F647" s="3">
+        <v>0</v>
+      </c>
+      <c r="G647">
+        <v>-322</v>
+      </c>
       <c r="H647" t="s">
         <v>14</v>
       </c>
@@ -17581,6 +18882,18 @@
       </c>
       <c r="C648" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="D648" s="2">
+        <v>0</v>
+      </c>
+      <c r="E648" s="2">
+        <v>0</v>
+      </c>
+      <c r="F648" s="3">
+        <v>0</v>
+      </c>
+      <c r="G648">
+        <v>-322</v>
       </c>
       <c r="H648" t="s">
         <v>14</v>

--- a/led_locations.xlsx
+++ b/led_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapti\Documents\traffic-pcb-sb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642BF8B0-7E4B-46C2-A398-77C74AA4563E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900148D5-3A6F-4FE3-9F78-61A00A172172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19215" yWindow="15" windowWidth="19185" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2032,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H653"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="D209" sqref="D209"/>
+    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
+      <selection activeCell="E331" sqref="E331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10638,11 +10638,11 @@
       <c r="C331" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D331">
-        <v>43.431989999999999</v>
-      </c>
-      <c r="E331">
-        <v>-119.89362199999999</v>
+      <c r="D331" s="2">
+        <v>34.432329000000003</v>
+      </c>
+      <c r="E331" s="2">
+        <v>-119.886923</v>
       </c>
       <c r="F331" s="1" t="s">
         <v>16</v>

--- a/led_locations.xlsx
+++ b/led_locations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapti\Documents\traffic-pcb-sb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900148D5-3A6F-4FE3-9F78-61A00A172172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960895F8-A7BA-4290-96AB-32FA11695CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19215" yWindow="15" windowWidth="19185" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2032,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H653"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
-      <selection activeCell="E331" sqref="E331"/>
+    <sheetView tabSelected="1" topLeftCell="A612" workbookViewId="0">
+      <selection activeCell="G653" sqref="G653"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5205,24 +5205,24 @@
         <v>6</v>
       </c>
       <c r="D122" s="2">
-        <v>0</v>
+        <v>34.040809000000003</v>
       </c>
       <c r="E122" s="2">
-        <v>0</v>
-      </c>
-      <c r="F122" s="3">
-        <v>0</v>
+        <v>-118.88845499999999</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="G122">
-        <v>-87</v>
+        <v>54</v>
       </c>
       <c r="H122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>188</v>
@@ -5231,24 +5231,24 @@
         <v>6</v>
       </c>
       <c r="D123" s="2">
-        <v>34.040809000000003</v>
+        <v>0</v>
       </c>
       <c r="E123" s="2">
-        <v>-118.88845499999999</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>208</v>
+        <v>0</v>
+      </c>
+      <c r="F123" s="3">
+        <v>0</v>
       </c>
       <c r="G123">
-        <v>54</v>
+        <v>-88</v>
       </c>
       <c r="H123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>188</v>
@@ -6444,7 +6444,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>188</v>
@@ -6470,7 +6470,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>188</v>
@@ -6488,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="G171">
-        <v>-329</v>
+        <v>-325</v>
       </c>
       <c r="H171" t="s">
         <v>14</v>
@@ -18976,7 +18976,7 @@
     </row>
     <row r="652" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A652" s="3">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B652" s="3" t="s">
         <v>188</v>
@@ -19002,7 +19002,7 @@
     </row>
     <row r="653" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A653" s="3">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B653" s="3" t="s">
         <v>188</v>
@@ -19020,7 +19020,7 @@
         <v>0</v>
       </c>
       <c r="G653">
-        <v>-329</v>
+        <v>-325</v>
       </c>
       <c r="H653" t="s">
         <v>14</v>

--- a/led_locations.xlsx
+++ b/led_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapti\Documents\traffic-pcb-sb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960895F8-A7BA-4290-96AB-32FA11695CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232D2948-29CC-4733-A973-533EE2EB92D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2032,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H653"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A612" workbookViewId="0">
-      <selection activeCell="G653" sqref="G653"/>
+    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="N361" sqref="N361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11220,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="G353">
-        <v>-26</v>
+        <v>-25</v>
       </c>
       <c r="H353" t="s">
         <v>14</v>
